--- a/src/attributions/attributions_saliency_traj_454.xlsx
+++ b/src/attributions/attributions_saliency_traj_454.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.476071697150473e-07</v>
+        <v>0.0008201407035812736</v>
       </c>
       <c r="B4" t="n">
-        <v>1.364160880257259e-06</v>
+        <v>0.003541743382811546</v>
       </c>
       <c r="C4" t="n">
-        <v>1.057262082326815e-07</v>
+        <v>0.0003965444921050221</v>
       </c>
       <c r="D4" t="n">
-        <v>1.858703171819798e-06</v>
+        <v>0.001106616226024926</v>
       </c>
       <c r="E4" t="n">
-        <v>9.093082553590648e-08</v>
+        <v>0.0002120266726706177</v>
       </c>
       <c r="F4" t="n">
-        <v>3.364464618016427e-08</v>
+        <v>0.002860534004867077</v>
       </c>
       <c r="G4" t="n">
-        <v>4.483217708184384e-08</v>
+        <v>0.0003016575064975768</v>
       </c>
       <c r="H4" t="n">
-        <v>1.732221903694153e-07</v>
+        <v>4.908122355118394e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>9.416020674279935e-08</v>
+        <v>0.0001879200135590509</v>
       </c>
       <c r="J4" t="n">
-        <v>2.03662526843118e-08</v>
+        <v>0.001294837798923254</v>
       </c>
       <c r="K4" t="n">
-        <v>1.055807274497056e-06</v>
+        <v>0.002245771232992411</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2716334651941e-07</v>
+        <v>7.665676821488887e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.520830096524151e-06</v>
+        <v>0.001413680845871568</v>
       </c>
       <c r="N4" t="n">
-        <v>2.402088341568742e-07</v>
+        <v>0.0001782754843588918</v>
       </c>
       <c r="O4" t="n">
-        <v>3.992611254943768e-07</v>
+        <v>0.002615283709019423</v>
       </c>
       <c r="P4" t="n">
-        <v>9.682260326826508e-08</v>
+        <v>0.0001702372392173856</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.394049936071951e-08</v>
+        <v>0.0008006473071873188</v>
       </c>
       <c r="R4" t="n">
-        <v>3.830161858786596e-07</v>
+        <v>0.0004809105885215104</v>
       </c>
       <c r="S4" t="n">
-        <v>9.273207979276776e-08</v>
+        <v>0.0001221904531121254</v>
       </c>
       <c r="T4" t="n">
-        <v>2.557258227398052e-08</v>
+        <v>0.000138591683935374</v>
       </c>
       <c r="U4" t="n">
-        <v>1.054461051808175e-07</v>
+        <v>0.0002534967206884176</v>
       </c>
       <c r="V4" t="n">
-        <v>1.296453291388389e-07</v>
+        <v>0.000254717975622043</v>
       </c>
       <c r="W4" t="n">
-        <v>1.031191686706734e-06</v>
+        <v>9.748000593390316e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>4.809608356026729e-08</v>
+        <v>0.000184014585101977</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.161241911518118e-07</v>
+        <v>0.0003249140281695873</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.603234807134868e-07</v>
+        <v>0.0002148651255993173</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.75596407309331e-08</v>
+        <v>3.418473352212459e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.178300005401979e-07</v>
+        <v>0.0004588981973938644</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.825130363566132e-07</v>
+        <v>0.0005316532915458083</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.185930593957892e-08</v>
+        <v>0.0002310169802512974</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.769305294554215e-07</v>
+        <v>0.0004736172850243747</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.896600446751108e-07</v>
+        <v>0.0004750699736177921</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.584468805049255e-07</v>
+        <v>0.0004658814868889749</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.708168136057793e-08</v>
+        <v>9.242046508006752e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.568959930864366e-07</v>
+        <v>9.468577627558261e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.270752912953867e-08</v>
+        <v>0.0001729374635033309</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.04053565716822e-07</v>
+        <v>2.736102032940835e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.428894561035122e-07</v>
+        <v>0.0001802036422304809</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.634922242033099e-08</v>
+        <v>0.0003020140575245023</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.609950169902731e-07</v>
+        <v>0.0004880504566244781</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.0472816209558e-09</v>
+        <v>4.447645551408641e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.945559375826633e-07</v>
+        <v>0.000751256593503058</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.09736660647286e-07</v>
+        <v>0.0005907063605263829</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.958976873581378e-08</v>
+        <v>0.0004775743582285941</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.934834727990165e-07</v>
+        <v>0.0007098122150637209</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.020040584393428e-07</v>
+        <v>0.0005254559800960124</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.778967751117307e-07</v>
+        <v>0.002150812651962042</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.985939886457345e-07</v>
+        <v>0.0005073487991467118</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.692933993690531e-07</v>
+        <v>5.584000609815121e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.001260656607883e-07</v>
+        <v>0.0008793587330728769</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.398000932795185e-07</v>
+        <v>0.0009642000077292323</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.144846232316922e-07</v>
+        <v>0.0005970639758743346</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.983919304393567e-07</v>
+        <v>0.0003447182534728199</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.068269313009296e-07</v>
+        <v>0.001003611600026488</v>
       </c>
       <c r="BC4" t="n">
-        <v>8.289190134291857e-08</v>
+        <v>0.001143941772170365</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.754830461526581e-07</v>
+        <v>0.0004701655125245452</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.154809439185556e-07</v>
+        <v>0.0007622643606737256</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.563434903408051e-07</v>
+        <v>0.000378850701963529</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.008226545058278e-07</v>
+        <v>0.001214344054460526</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.532699679453799e-07</v>
+        <v>0.001474709599278867</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.549011810515367e-07</v>
+        <v>0.0006270517478697002</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.495346507203067e-07</v>
+        <v>0.0008926843293011189</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.887768175696692e-07</v>
+        <v>0.0006580142071470618</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.466803437073395e-07</v>
+        <v>0.0001379135937895626</v>
       </c>
       <c r="BM4" t="n">
-        <v>5.064972583568306e-07</v>
+        <v>0.0004948679124936461</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.045835062996048e-08</v>
+        <v>0.0001655342057347298</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.719507108395192e-08</v>
+        <v>0.001038526184856892</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.994075233824333e-07</v>
+        <v>1.086981501430273e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.193200572264686e-07</v>
+        <v>8.890080789569765e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>9.115964871853066e-08</v>
+        <v>0.0005823174142278731</v>
       </c>
       <c r="BS4" t="n">
-        <v>8.981256627293988e-08</v>
+        <v>0.0003232555172871798</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.261110575498606e-08</v>
+        <v>0.0002090164634864777</v>
       </c>
       <c r="BU4" t="n">
-        <v>5.845283226335596e-07</v>
+        <v>0.0001906483812490478</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.26700243185951e-07</v>
+        <v>0.0009722844115458429</v>
       </c>
       <c r="BW4" t="n">
-        <v>8.320923683413639e-08</v>
+        <v>0.0004773792170453817</v>
       </c>
       <c r="BX4" t="n">
-        <v>8.350657481059898e-07</v>
+        <v>0.0001371369580738246</v>
       </c>
       <c r="BY4" t="n">
-        <v>7.867669182815007e-09</v>
+        <v>0.0002168955688830465</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.760022539405327e-07</v>
+        <v>0.0001210469781653956</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.195467689285579e-07</v>
+        <v>0.0001983066322281957</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.380849271181432e-08</v>
+        <v>0.0003867783816531301</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.267957401296371e-07</v>
+        <v>0.0004641962586902082</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.98879228921578e-07</v>
+        <v>4.365268614492379e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.769691036519362e-07</v>
+        <v>0.0006323736743070185</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.124040676676486e-08</v>
+        <v>0.000366825086530298</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.161200652357365e-07</v>
+        <v>0.0003152078134007752</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.253996089189968e-07</v>
+        <v>0.000325717672239989</v>
       </c>
       <c r="CI4" t="n">
-        <v>9.159703751038251e-08</v>
+        <v>0.0004596160724759102</v>
       </c>
       <c r="CJ4" t="n">
-        <v>7.116999434231275e-09</v>
+        <v>0.000209823512705043</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.764085233446622e-08</v>
+        <v>7.481845386791974e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>7.557176928685294e-08</v>
+        <v>0.0003170778218191117</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.631484991548859e-07</v>
+        <v>9.546623914502561e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.0623736557136e-08</v>
+        <v>0.0002148397907149047</v>
       </c>
       <c r="CO4" t="n">
-        <v>9.889076579838729e-08</v>
+        <v>0.0002831789606716484</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.508083009113761e-07</v>
+        <v>0.0007620150572620332</v>
       </c>
       <c r="CQ4" t="n">
-        <v>4.504478852140892e-07</v>
+        <v>0.0002866927243303508</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.654697355974349e-07</v>
+        <v>9.526107169222087e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.788222903087444e-07</v>
+        <v>0.0001965242408914492</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.610464887060516e-07</v>
+        <v>4.53692045994103e-05</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.455935372263184e-08</v>
+        <v>0.0005321940989233553</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.034345752439549e-07</v>
+        <v>2.730664346017875e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.89267575226404e-07</v>
+        <v>0.0005423140828497708</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.795822240386769e-08</v>
+        <v>0.0003348504251334816</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.011246008099988e-07</v>
+        <v>0.0004703192680608481</v>
       </c>
       <c r="CZ4" t="n">
-        <v>7.0471315893883e-08</v>
+        <v>0.0004347106441855431</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.244597562319541e-08</v>
+        <v>0.0004163850098848343</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.025369916225372e-08</v>
+        <v>0.0001284718455281109</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.119572131841778e-08</v>
+        <v>7.242959691211581e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>6.39354595932673e-08</v>
+        <v>0.0003238608478568494</v>
       </c>
       <c r="DE4" t="n">
-        <v>6.190597900967987e-07</v>
+        <v>0.0002246108051622286</v>
       </c>
       <c r="DF4" t="n">
-        <v>8.920725917960226e-07</v>
+        <v>0.0008869118755683303</v>
       </c>
       <c r="DG4" t="n">
-        <v>4.760380534207798e-09</v>
+        <v>0.0001726083282846957</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.701601999888226e-07</v>
+        <v>0.0005266686202958226</v>
       </c>
       <c r="DI4" t="n">
-        <v>3.361892595421523e-07</v>
+        <v>0.000374206603737548</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.164896386602777e-07</v>
+        <v>0.001263221958652139</v>
       </c>
       <c r="DK4" t="n">
-        <v>3.374458117377799e-07</v>
+        <v>0.000817443709820509</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.225684395147255e-07</v>
+        <v>0.0006292429170571268</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.094812856512362e-08</v>
+        <v>0.00105446542147547</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.977109889139683e-07</v>
+        <v>0.0005237571313045919</v>
       </c>
       <c r="DO4" t="n">
-        <v>3.546658149389259e-07</v>
+        <v>0.0003387411998119205</v>
       </c>
       <c r="DP4" t="n">
-        <v>9.951281754183583e-08</v>
+        <v>0.0003884302568621933</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.115514152161268e-07</v>
+        <v>0.0003915311535820365</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.757779154511809e-07</v>
+        <v>7.707397162448615e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.810362135756804e-07</v>
+        <v>5.610997322946787e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.620442422582528e-08</v>
+        <v>0.0004775585257448256</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.144794765650659e-07</v>
+        <v>0.0001067718403646722</v>
       </c>
       <c r="DV4" t="n">
-        <v>2.832527457030665e-07</v>
+        <v>9.276475611841306e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.036919243802004e-07</v>
+        <v>0.0001863767975009978</v>
       </c>
       <c r="DX4" t="n">
-        <v>3.683189504499751e-07</v>
+        <v>0.0001807893422665074</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.938893916531015e-07</v>
+        <v>0.0002872520999517292</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.267966519615584e-07</v>
+        <v>0.0002545499010011554</v>
       </c>
       <c r="EA4" t="n">
-        <v>4.958591404147228e-08</v>
+        <v>0.0003166494134347886</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.780705503051649e-07</v>
+        <v>1.94284220924601e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>2.090747130978343e-08</v>
+        <v>8.040292595978826e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>6.617190351221325e-09</v>
+        <v>0.0002438958763377741</v>
       </c>
       <c r="EE4" t="n">
-        <v>3.331751088353485e-07</v>
+        <v>0.0003691171586979181</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.089400593125902e-07</v>
+        <v>0.0001171088952105492</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.951936946577916e-07</v>
+        <v>0.0002582500746939331</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.528636488501434e-07</v>
+        <v>8.116509707178921e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>4.053991347063857e-07</v>
+        <v>9.31534159462899e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>4.253007546139997e-07</v>
+        <v>0.0002600160078145564</v>
       </c>
       <c r="EK4" t="n">
-        <v>6.073013025797991e-08</v>
+        <v>0.0002526353055145591</v>
       </c>
       <c r="EL4" t="n">
-        <v>3.761328670748298e-08</v>
+        <v>0.0006257948698475957</v>
       </c>
       <c r="EM4" t="n">
-        <v>5.66123716794209e-08</v>
+        <v>4.356335557531565e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>4.470872738693288e-08</v>
+        <v>4.110588270123117e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>3.774496803998773e-07</v>
+        <v>0.0004824353381991386</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.82284446484482e-07</v>
+        <v>0.0002603749162517488</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.233145721675101e-07</v>
+        <v>0.0002013593912124634</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.170246489185956e-07</v>
+        <v>0.0005671543767675757</v>
       </c>
       <c r="ES4" t="n">
-        <v>3.82773862384056e-07</v>
+        <v>0.000620860664639622</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.758402490281696e-08</v>
+        <v>0.001065690303221345</v>
       </c>
       <c r="EU4" t="n">
-        <v>4.512387974386911e-08</v>
+        <v>0.0002470091567374766</v>
       </c>
       <c r="EV4" t="n">
-        <v>6.784361517020443e-09</v>
+        <v>6.104201747803017e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.413552439544219e-07</v>
+        <v>0.0004478763148654252</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.509688385998743e-07</v>
+        <v>1.36015250973287e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.438115132008534e-07</v>
+        <v>0.0005603771423920989</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.736908738005695e-08</v>
+        <v>0.0001619147806195542</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.515541837055935e-07</v>
+        <v>0.0002693868009373546</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.418272006503685e-07</v>
+        <v>0.0004648625035770237</v>
       </c>
       <c r="FC4" t="n">
-        <v>8.721713840031953e-08</v>
+        <v>0.0003480789309833199</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.22642152386743e-08</v>
+        <v>0.0002922021667473018</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.31454438445644e-08</v>
+        <v>3.200418723281473e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.673935739494482e-08</v>
+        <v>0.0004953385214321315</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.287993711684976e-07</v>
+        <v>5.988734483253211e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>2.665353093789236e-08</v>
+        <v>0.0002671712136361748</v>
       </c>
       <c r="FI4" t="n">
-        <v>4.726777547148231e-08</v>
+        <v>4.47996353614144e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2.153073523913918e-07</v>
+        <v>0.0004123281396459788</v>
       </c>
       <c r="FK4" t="n">
-        <v>2.670709875474131e-07</v>
+        <v>0.000361504964530468</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.853042590482801e-07</v>
+        <v>0.0004010539851151407</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.309589521270027e-07</v>
+        <v>9.317955118604004e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>3.222540811975705e-08</v>
+        <v>0.0005035244976170361</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.188089294781093e-07</v>
+        <v>0.0004078600322827697</v>
       </c>
       <c r="FP4" t="n">
-        <v>5.356213250706787e-10</v>
+        <v>0.0004372981784399599</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.819485303007241e-07</v>
+        <v>4.007050301879644e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>2.230339646303037e-07</v>
+        <v>0.0002822263049893081</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.428101026907825e-07</v>
+        <v>1.854429137893021e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.951910206798857e-07</v>
+        <v>0.000554602243937552</v>
       </c>
       <c r="FU4" t="n">
-        <v>2.471033155870828e-07</v>
+        <v>0.001027223421260715</v>
       </c>
       <c r="FV4" t="n">
-        <v>5.770004918304039e-09</v>
+        <v>9.285850683227181e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>2.059769457218863e-07</v>
+        <v>0.0005776471807621419</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.520868574469205e-07</v>
+        <v>0.00018723813991528</v>
       </c>
       <c r="FY4" t="n">
-        <v>3.462799043063569e-07</v>
+        <v>0.000596195284742862</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3.822370331363345e-08</v>
+        <v>0.0006127817323431373</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.439824472981854e-07</v>
+        <v>0.000157106842380017</v>
       </c>
       <c r="GB4" t="n">
-        <v>5.171368115952646e-07</v>
+        <v>8.760848140809685e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>4.050826305501687e-07</v>
+        <v>0.0004048931004945189</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.841433601157405e-07</v>
+        <v>0.0002842462272383273</v>
       </c>
       <c r="GE4" t="n">
-        <v>2.854982916744575e-08</v>
+        <v>0.0003165077359881252</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.995413612121411e-07</v>
+        <v>0.0003716300125233829</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.549406931644626e-07</v>
+        <v>0.0001895745226647705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.462268173213488e-08</v>
+        <v>0.0002474080247338861</v>
       </c>
       <c r="B5" t="n">
-        <v>5.115372800901241e-07</v>
+        <v>0.005441668443381786</v>
       </c>
       <c r="C5" t="n">
-        <v>6.924024660293071e-07</v>
+        <v>0.0005360187496989965</v>
       </c>
       <c r="D5" t="n">
-        <v>1.958319899131311e-06</v>
+        <v>0.003874510526657104</v>
       </c>
       <c r="E5" t="n">
-        <v>1.071995825441263e-07</v>
+        <v>0.00255165109410882</v>
       </c>
       <c r="F5" t="n">
-        <v>6.387487871961639e-09</v>
+        <v>0.001455665566027164</v>
       </c>
       <c r="G5" t="n">
-        <v>5.831149962887139e-08</v>
+        <v>0.0007843280909582973</v>
       </c>
       <c r="H5" t="n">
-        <v>3.836880182461755e-07</v>
+        <v>0.0006563448114320636</v>
       </c>
       <c r="I5" t="n">
-        <v>2.513010031179874e-07</v>
+        <v>3.518685480230488e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8195295221376e-07</v>
+        <v>0.0003121984773315489</v>
       </c>
       <c r="K5" t="n">
-        <v>6.951303817004373e-07</v>
+        <v>0.003858882235363126</v>
       </c>
       <c r="L5" t="n">
-        <v>4.476446520129684e-07</v>
+        <v>0.0001743194443406537</v>
       </c>
       <c r="M5" t="n">
-        <v>1.766394575497543e-06</v>
+        <v>0.003656535409390926</v>
       </c>
       <c r="N5" t="n">
-        <v>2.005897243861909e-07</v>
+        <v>0.004610688425600529</v>
       </c>
       <c r="O5" t="n">
-        <v>5.85954637699615e-07</v>
+        <v>0.0025078309699893</v>
       </c>
       <c r="P5" t="n">
-        <v>7.717035543919337e-08</v>
+        <v>0.0001206820306833833</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.739586749266891e-07</v>
+        <v>0.0003174151643179357</v>
       </c>
       <c r="R5" t="n">
-        <v>1.100977442547446e-07</v>
+        <v>0.0009419807465746999</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48244020895072e-07</v>
+        <v>0.000117970586870797</v>
       </c>
       <c r="T5" t="n">
-        <v>4.624180860446359e-07</v>
+        <v>0.001202716957777739</v>
       </c>
       <c r="U5" t="n">
-        <v>3.437688746998901e-07</v>
+        <v>0.0004850936529692262</v>
       </c>
       <c r="V5" t="n">
-        <v>1.490284518013141e-08</v>
+        <v>0.0003984830691479146</v>
       </c>
       <c r="W5" t="n">
-        <v>1.023200979943795e-06</v>
+        <v>0.000789462705142796</v>
       </c>
       <c r="X5" t="n">
-        <v>4.049834956276754e-08</v>
+        <v>0.001429119380190969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.641643621042022e-07</v>
+        <v>0.001137110055424273</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.146767883459688e-07</v>
+        <v>0.0007475882885046303</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.067411734671623e-08</v>
+        <v>0.000319340149872005</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.818001914623892e-07</v>
+        <v>0.000938846031203866</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.224090208841517e-08</v>
+        <v>0.001022250973619521</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.538380894951842e-07</v>
+        <v>0.0004516329208854586</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.312541139166569e-07</v>
+        <v>0.0007736145635135472</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.656133398839302e-07</v>
+        <v>0.001567358849570155</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.454368714348675e-08</v>
+        <v>0.0001035115856211632</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.436051147469698e-07</v>
+        <v>0.0004565727722365409</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.333646307306481e-07</v>
+        <v>7.102408562786877e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.36546293056017e-07</v>
+        <v>8.615450497018173e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.054279318348563e-07</v>
+        <v>0.0004685076710302383</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.790471391264873e-08</v>
+        <v>0.0003844674793072045</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.220087225168754e-07</v>
+        <v>0.000212478480534628</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.894218139066652e-07</v>
+        <v>0.0002650156966410577</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.462114482819743e-07</v>
+        <v>0.0008788126870058477</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.500080427125795e-07</v>
+        <v>7.913177250884473e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.22212317832782e-09</v>
+        <v>9.669567225500941e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.771134433032785e-08</v>
+        <v>1.838195021264255e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.365542428606204e-08</v>
+        <v>0.000440501025877893</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.173195798287452e-07</v>
+        <v>0.0004658313700929284</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.562909564105212e-07</v>
+        <v>0.004487221129238605</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.071069218345656e-07</v>
+        <v>5.457611041492783e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.217991762649035e-07</v>
+        <v>0.0004295629914849997</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.275224832397726e-07</v>
+        <v>0.0009016635594889522</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.143214021226413e-07</v>
+        <v>0.0002998484123963863</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.908540182033903e-07</v>
+        <v>0.0001828511594794691</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.539242416332854e-07</v>
+        <v>0.0002341577201150358</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.890208072869882e-08</v>
+        <v>1.248553235200234e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.366537839610828e-07</v>
+        <v>0.0003355863154865801</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.899961941693618e-07</v>
+        <v>0.0007350100204348564</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.280259394638051e-07</v>
+        <v>0.001433245488442481</v>
       </c>
       <c r="BF5" t="n">
-        <v>9.053285339177819e-07</v>
+        <v>0.000678536482155323</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.168497618664333e-07</v>
+        <v>0.003396777668967843</v>
       </c>
       <c r="BH5" t="n">
-        <v>3.664964367544599e-07</v>
+        <v>0.001697938423603773</v>
       </c>
       <c r="BI5" t="n">
-        <v>3.232449046208785e-07</v>
+        <v>0.001239384291693568</v>
       </c>
       <c r="BJ5" t="n">
-        <v>9.861013694489884e-08</v>
+        <v>0.0002549876517150551</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.115105234816838e-07</v>
+        <v>0.000298596452921629</v>
       </c>
       <c r="BL5" t="n">
-        <v>3.301539379663154e-07</v>
+        <v>0.0009602243662811816</v>
       </c>
       <c r="BM5" t="n">
-        <v>7.204130270110909e-08</v>
+        <v>0.0009454977698624134</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.034010708167443e-07</v>
+        <v>0.0009624207159504294</v>
       </c>
       <c r="BO5" t="n">
-        <v>4.685487198230476e-08</v>
+        <v>0.0004164382698945701</v>
       </c>
       <c r="BP5" t="n">
-        <v>6.876854996562543e-08</v>
+        <v>0.001547813415527344</v>
       </c>
       <c r="BQ5" t="n">
-        <v>6.685354492219631e-08</v>
+        <v>0.0004590303578879684</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.065005506006855e-08</v>
+        <v>0.001247502164915204</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.076037818847908e-07</v>
+        <v>0.001340667717158794</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.29917864910567e-07</v>
+        <v>0.0008930278709158301</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.897943147672777e-07</v>
+        <v>0.0003412197693251073</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.681963368582728e-07</v>
+        <v>0.002078435383737087</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.822183577360192e-07</v>
+        <v>0.0005624546902254224</v>
       </c>
       <c r="BX5" t="n">
-        <v>8.941487408264948e-07</v>
+        <v>0.0005256536533124745</v>
       </c>
       <c r="BY5" t="n">
-        <v>6.256063755927244e-08</v>
+        <v>1.962504211405758e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7.382747924111754e-08</v>
+        <v>0.0006607040413655341</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.620115028799773e-07</v>
+        <v>0.0002358407073188573</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.821600363882681e-07</v>
+        <v>0.0001574015477672219</v>
       </c>
       <c r="CC5" t="n">
-        <v>3.232709389067168e-07</v>
+        <v>0.0004463302902877331</v>
       </c>
       <c r="CD5" t="n">
-        <v>3.961029904075986e-07</v>
+        <v>6.769062019884586e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.717067306117315e-07</v>
+        <v>0.000968653941527009</v>
       </c>
       <c r="CF5" t="n">
-        <v>9.491765950997433e-08</v>
+        <v>0.0004412893031258136</v>
       </c>
       <c r="CG5" t="n">
-        <v>3.975663958044606e-07</v>
+        <v>0.0004401521291583776</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.410625003472887e-07</v>
+        <v>6.308157026069239e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>7.63486482924236e-08</v>
+        <v>0.0002972826478071511</v>
       </c>
       <c r="CJ5" t="n">
-        <v>4.469770331638756e-09</v>
+        <v>0.0004270778445061296</v>
       </c>
       <c r="CK5" t="n">
-        <v>7.154349646043556e-08</v>
+        <v>0.0001478340709581971</v>
       </c>
       <c r="CL5" t="n">
-        <v>4.999323977017411e-08</v>
+        <v>5.878995580133051e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>1.084649099425405e-07</v>
+        <v>0.001374534680508077</v>
       </c>
       <c r="CN5" t="n">
-        <v>6.623014883189171e-07</v>
+        <v>0.0007046287646517158</v>
       </c>
       <c r="CO5" t="n">
-        <v>6.425167953238997e-08</v>
+        <v>5.169412361283321e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>6.550320108544838e-07</v>
+        <v>0.001796378404833376</v>
       </c>
       <c r="CQ5" t="n">
-        <v>8.965939741756301e-07</v>
+        <v>0.0003854157403111458</v>
       </c>
       <c r="CR5" t="n">
-        <v>7.787149911564484e-07</v>
+        <v>0.0005823806277476251</v>
       </c>
       <c r="CS5" t="n">
-        <v>4.858019053699536e-08</v>
+        <v>0.0004729271749965847</v>
       </c>
       <c r="CT5" t="n">
-        <v>4.711958467851218e-08</v>
+        <v>0.00119388266466558</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.089409119638731e-07</v>
+        <v>7.124690455384552e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>4.136794586884207e-07</v>
+        <v>0.000105254293885082</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.52191455274442e-07</v>
+        <v>0.000803658738732338</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.232123310046518e-07</v>
+        <v>0.0005571843939833343</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.909533461410319e-07</v>
+        <v>0.0005277294549159706</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.56329932110566e-07</v>
+        <v>7.702218135818839e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>4.28100719318536e-08</v>
+        <v>0.0002380422956775874</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.027925478069847e-08</v>
+        <v>0.0005125439492985606</v>
       </c>
       <c r="DC5" t="n">
-        <v>7.573687810236152e-08</v>
+        <v>0.0002287204406457022</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.03159806030817e-07</v>
+        <v>5.809651338495314e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>5.831995508742693e-07</v>
+        <v>5.251305992715061e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.897149672913656e-07</v>
+        <v>0.0004535499319899827</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.117303298769912e-07</v>
+        <v>0.0001194174983538687</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.735899329309177e-07</v>
+        <v>0.002353676361963153</v>
       </c>
       <c r="DI5" t="n">
-        <v>3.251489317790401e-07</v>
+        <v>0.002082977909594774</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.784987422430277e-08</v>
+        <v>0.0003829219203907996</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.462027086063244e-07</v>
+        <v>0.0003342406998854131</v>
       </c>
       <c r="DL5" t="n">
-        <v>4.529709087819356e-07</v>
+        <v>0.0001093687897082418</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.616345113892748e-07</v>
+        <v>0.000192751525901258</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.259972973206459e-07</v>
+        <v>0.0002198681759182364</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.500117008390589e-07</v>
+        <v>0.0004820912436116487</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.951629151150883e-08</v>
+        <v>0.0004538725188467652</v>
       </c>
       <c r="DQ5" t="n">
-        <v>6.468837909778813e-09</v>
+        <v>0.0004762359312735498</v>
       </c>
       <c r="DR5" t="n">
-        <v>3.093651912422501e-07</v>
+        <v>0.000490762060508132</v>
       </c>
       <c r="DS5" t="n">
-        <v>3.094605176556797e-07</v>
+        <v>0.0004999615484848619</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.215302205537228e-07</v>
+        <v>0.0004397635930217803</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.723242348816711e-07</v>
+        <v>0.0001604088756721467</v>
       </c>
       <c r="DV5" t="n">
-        <v>2.596965202883439e-07</v>
+        <v>0.000337190693244338</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.984627573392572e-08</v>
+        <v>0.0001137495200964622</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.99574310247408e-07</v>
+        <v>0.0001040214629028924</v>
       </c>
       <c r="DY5" t="n">
-        <v>6.277605280047283e-08</v>
+        <v>0.0007625485886819661</v>
       </c>
       <c r="DZ5" t="n">
-        <v>4.749938398163067e-07</v>
+        <v>0.0004030424170196056</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.932366870960323e-07</v>
+        <v>0.0007990180747583508</v>
       </c>
       <c r="EB5" t="n">
-        <v>2.868055162252858e-07</v>
+        <v>0.001183388871140778</v>
       </c>
       <c r="EC5" t="n">
-        <v>4.279164755871534e-08</v>
+        <v>0.0006014527752995491</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.76489764416965e-09</v>
+        <v>0.0007360742310993373</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.254090875590919e-08</v>
+        <v>0.0001768862566677853</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.424065144168708e-07</v>
+        <v>0.0001536459312774241</v>
       </c>
       <c r="EG5" t="n">
-        <v>7.916547417607944e-08</v>
+        <v>0.0007896915194578469</v>
       </c>
       <c r="EH5" t="n">
-        <v>7.474064034340699e-08</v>
+        <v>0.000131993496324867</v>
       </c>
       <c r="EI5" t="n">
-        <v>4.769933639181545e-07</v>
+        <v>0.0003825796011369675</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.949720112610521e-07</v>
+        <v>0.001211831113323569</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.663268562879239e-07</v>
+        <v>0.0001504373649368063</v>
       </c>
       <c r="EL5" t="n">
-        <v>1.190791110161626e-08</v>
+        <v>0.001062835450284183</v>
       </c>
       <c r="EM5" t="n">
-        <v>8.086296077181032e-08</v>
+        <v>0.0006265223491936922</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.979765471560313e-07</v>
+        <v>0.0003648038837127388</v>
       </c>
       <c r="EO5" t="n">
-        <v>4.980519747732615e-07</v>
+        <v>0.0001795763964764774</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.779596061624034e-07</v>
+        <v>0.0006286808638833463</v>
       </c>
       <c r="EQ5" t="n">
-        <v>3.133653194709041e-07</v>
+        <v>0.0004176758229732513</v>
       </c>
       <c r="ER5" t="n">
-        <v>2.69513051875947e-08</v>
+        <v>0.0002144110767403618</v>
       </c>
       <c r="ES5" t="n">
-        <v>2.030891437243554e-07</v>
+        <v>0.0002535301318857819</v>
       </c>
       <c r="ET5" t="n">
-        <v>2.082290251337326e-07</v>
+        <v>0.0009127688826993108</v>
       </c>
       <c r="EU5" t="n">
-        <v>5.952844972512139e-08</v>
+        <v>0.0007685747696086764</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.709435023007245e-07</v>
+        <v>0.0003010348882526159</v>
       </c>
       <c r="EW5" t="n">
-        <v>2.709240050080552e-07</v>
+        <v>0.0002249334065709263</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.075149663800403e-07</v>
+        <v>0.0001255327515536919</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.878662345689008e-07</v>
+        <v>0.0008256452274508774</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.549017980551071e-07</v>
+        <v>0.0003840567660517991</v>
       </c>
       <c r="FA5" t="n">
-        <v>3.360198661539471e-07</v>
+        <v>0.0005393701721914113</v>
       </c>
       <c r="FB5" t="n">
-        <v>2.227750997008116e-07</v>
+        <v>0.0003179285849910229</v>
       </c>
       <c r="FC5" t="n">
-        <v>8.604911272414029e-08</v>
+        <v>0.0004386958607938141</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.967034617995523e-09</v>
+        <v>0.0004849265969824046</v>
       </c>
       <c r="FE5" t="n">
-        <v>3.949945792669496e-08</v>
+        <v>0.0001646804303163663</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.599730208885376e-09</v>
+        <v>3.055536944884807e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.553500936779528e-07</v>
+        <v>0.0002385108382441103</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.114761900566918e-07</v>
+        <v>0.0001190697512356564</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.322409843851347e-07</v>
+        <v>0.0001805190113373101</v>
       </c>
       <c r="FJ5" t="n">
-        <v>2.364349285244316e-07</v>
+        <v>0.0008402877720072865</v>
       </c>
       <c r="FK5" t="n">
-        <v>1.181656728022062e-07</v>
+        <v>0.000318466336466372</v>
       </c>
       <c r="FL5" t="n">
-        <v>4.322186697436337e-08</v>
+        <v>0.0006935003912076354</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.561032547670038e-07</v>
+        <v>0.0007138578221201897</v>
       </c>
       <c r="FN5" t="n">
-        <v>3.582643159916188e-07</v>
+        <v>9.051017696037889e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>3.304074311927252e-07</v>
+        <v>0.0003955945721827447</v>
       </c>
       <c r="FP5" t="n">
-        <v>1.947133512203436e-07</v>
+        <v>0.0007456919411197305</v>
       </c>
       <c r="FQ5" t="n">
-        <v>2.253352135994646e-07</v>
+        <v>0.0001731355005176738</v>
       </c>
       <c r="FR5" t="n">
-        <v>3.981678560194268e-07</v>
+        <v>0.0005882193217985332</v>
       </c>
       <c r="FS5" t="n">
-        <v>1.762012402650726e-07</v>
+        <v>0.0006368269096128643</v>
       </c>
       <c r="FT5" t="n">
-        <v>4.343765169778635e-08</v>
+        <v>0.0005906824371777475</v>
       </c>
       <c r="FU5" t="n">
-        <v>8.746094692924089e-08</v>
+        <v>0.0005250866524875164</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.734243764734856e-07</v>
+        <v>0.0007276342366822064</v>
       </c>
       <c r="FW5" t="n">
-        <v>1.230156954079575e-07</v>
+        <v>0.0007491712458431721</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.188693480955408e-07</v>
+        <v>0.0006887799827381968</v>
       </c>
       <c r="FY5" t="n">
-        <v>5.148023092260701e-07</v>
+        <v>0.0008279777830466628</v>
       </c>
       <c r="FZ5" t="n">
-        <v>3.815895581738005e-07</v>
+        <v>0.0002660646860022098</v>
       </c>
       <c r="GA5" t="n">
-        <v>7.707953386670852e-09</v>
+        <v>0.0003407958138268441</v>
       </c>
       <c r="GB5" t="n">
-        <v>4.554582915261562e-07</v>
+        <v>6.154808215796947e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.637372122331726e-07</v>
+        <v>0.001221275539137423</v>
       </c>
       <c r="GD5" t="n">
-        <v>5.499096005223691e-07</v>
+        <v>0.0004797128785867244</v>
       </c>
       <c r="GE5" t="n">
-        <v>1.019483164554913e-07</v>
+        <v>0.001879368093796074</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.381729362037731e-07</v>
+        <v>0.0001033601511153392</v>
       </c>
       <c r="GG5" t="n">
-        <v>2.374483329958821e-07</v>
+        <v>8.397296915063635e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.1098702499126e-16</v>
+        <v>0.0003071321989409626</v>
       </c>
       <c r="B6" t="n">
-        <v>2.728665648196304e-14</v>
+        <v>0.005077030044049025</v>
       </c>
       <c r="C6" t="n">
-        <v>1.153795077058276e-14</v>
+        <v>0.0002545970492064953</v>
       </c>
       <c r="D6" t="n">
-        <v>3.584683073922131e-14</v>
+        <v>0.001760178827680647</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4454843372308e-14</v>
+        <v>0.002324717352166772</v>
       </c>
       <c r="F6" t="n">
-        <v>1.519350949577298e-14</v>
+        <v>0.001670669298619032</v>
       </c>
       <c r="G6" t="n">
-        <v>1.077562111805389e-14</v>
+        <v>0.00112916948273778</v>
       </c>
       <c r="H6" t="n">
-        <v>1.281236859093432e-14</v>
+        <v>0.000160383788170293</v>
       </c>
       <c r="I6" t="n">
-        <v>3.115898787901458e-15</v>
+        <v>0.0005805335240438581</v>
       </c>
       <c r="J6" t="n">
-        <v>5.803753287556218e-15</v>
+        <v>0.0003309821477159858</v>
       </c>
       <c r="K6" t="n">
-        <v>4.375586197080499e-14</v>
+        <v>0.004042719025164843</v>
       </c>
       <c r="L6" t="n">
-        <v>1.401785910520306e-14</v>
+        <v>0.0003351006307639182</v>
       </c>
       <c r="M6" t="n">
-        <v>2.234757856740301e-14</v>
+        <v>0.0022548483684659</v>
       </c>
       <c r="N6" t="n">
-        <v>1.784625405624757e-14</v>
+        <v>0.002817040774971247</v>
       </c>
       <c r="O6" t="n">
-        <v>3.154766080532348e-14</v>
+        <v>0.002096616197377443</v>
       </c>
       <c r="P6" t="n">
-        <v>8.82798659342229e-15</v>
+        <v>0.001857632538303733</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.227650520041489e-14</v>
+        <v>0.002102303085848689</v>
       </c>
       <c r="R6" t="n">
-        <v>3.821615129928103e-14</v>
+        <v>0.000647531938739121</v>
       </c>
       <c r="S6" t="n">
-        <v>1.172775560746939e-15</v>
+        <v>7.680066482862458e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>4.09531536151508e-15</v>
+        <v>0.0008210380910895765</v>
       </c>
       <c r="U6" t="n">
-        <v>1.761292866653101e-14</v>
+        <v>6.633020529989153e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.882678956038452e-16</v>
+        <v>0.0002349582500755787</v>
       </c>
       <c r="W6" t="n">
-        <v>4.585919385663613e-14</v>
+        <v>0.0004519071953836828</v>
       </c>
       <c r="X6" t="n">
-        <v>1.298607641369133e-14</v>
+        <v>0.0007943717064335942</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.252534215939478e-14</v>
+        <v>9.351019252790138e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.403764477233467e-14</v>
+        <v>0.0001345269265584648</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.291851875988423e-14</v>
+        <v>5.767751645180397e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.059037501248937e-14</v>
+        <v>0.0005362082738429308</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.822859283979335e-15</v>
+        <v>0.0007743056048639119</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.048332576023227e-15</v>
+        <v>0.0004361968603916466</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.394269763662845e-14</v>
+        <v>0.0006326447473838925</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.985521443781003e-14</v>
+        <v>0.001018708804622293</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.764842828303324e-15</v>
+        <v>0.001308688893914223</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.044269277310309e-14</v>
+        <v>0.0002972743241116405</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.618465984132162e-14</v>
+        <v>7.337654824368656e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.86102477775512e-15</v>
+        <v>0.0004862989590037614</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.015913681103175e-14</v>
+        <v>0.0006599306943826377</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.051740291821656e-15</v>
+        <v>0.0002426817372906953</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.168045217511348e-15</v>
+        <v>0.0001717260456643999</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.509936330226826e-14</v>
+        <v>1.397635787725449e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.485036120224721e-14</v>
+        <v>0.0002185474295401946</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.458886519077086e-14</v>
+        <v>0.0004824103089049459</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.136896004392545e-15</v>
+        <v>0.000788042088970542</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.031983350578574e-15</v>
+        <v>7.005519000813365e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.253224968269609e-15</v>
+        <v>0.0005048693856224418</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.032265143930151e-14</v>
+        <v>0.0009944132762029767</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.232260412153626e-14</v>
+        <v>0.004477144218981266</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.886746238844578e-14</v>
+        <v>3.090804966632277e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.471980596905441e-14</v>
+        <v>0.0009321973193436861</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.518417939747542e-14</v>
+        <v>0.001187098911032081</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.077776545450973e-14</v>
+        <v>0.00137029925826937</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.986706577184141e-15</v>
+        <v>0.001365386648103595</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.312436809485775e-14</v>
+        <v>0.001283026300370693</v>
       </c>
       <c r="BB6" t="n">
-        <v>5.488646443265778e-15</v>
+        <v>0.0002124423044733703</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.413695786681764e-14</v>
+        <v>0.000101171295682434</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.66565386835885e-15</v>
+        <v>0.001403321046382189</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.394842305290199e-15</v>
+        <v>0.000943017948884517</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.276523713665025e-14</v>
+        <v>0.0002571264922153205</v>
       </c>
       <c r="BG6" t="n">
-        <v>6.219703215865546e-15</v>
+        <v>0.003268728265538812</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.445307038724965e-14</v>
+        <v>0.00143496529199183</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.584121251478192e-15</v>
+        <v>3.103722701780498e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.23822544021977e-14</v>
+        <v>0.002339065540581942</v>
       </c>
       <c r="BK6" t="n">
-        <v>8.851324892217988e-15</v>
+        <v>0.0004884921945631504</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.252463658094971e-14</v>
+        <v>0.0006203676457516849</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.398683144131219e-14</v>
+        <v>0.00181698624510318</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.893439154380602e-14</v>
+        <v>0.0004863465728703886</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.034324789244694e-14</v>
+        <v>0.0009251692099496722</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.500134482509529e-14</v>
+        <v>0.001599027658812702</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.869518612391949e-16</v>
+        <v>0.0001565598213346675</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.331237637486327e-15</v>
+        <v>0.001040053088217974</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.707161870906099e-14</v>
+        <v>0.0010868035024032</v>
       </c>
       <c r="BT6" t="n">
-        <v>5.563431829211807e-15</v>
+        <v>0.000141531927511096</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.590016367267882e-14</v>
+        <v>0.0004264875897206366</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.364199924628728e-14</v>
+        <v>0.001843152800574899</v>
       </c>
       <c r="BW6" t="n">
-        <v>9.4607981320524e-15</v>
+        <v>0.0006809562328271568</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.025796522718559e-14</v>
+        <v>0.0007953039021231234</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.180159789477853e-14</v>
+        <v>0.0001742081367410719</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3.674091806076148e-14</v>
+        <v>0.0002149541105609387</v>
       </c>
       <c r="CA6" t="n">
-        <v>6.6170967698829e-15</v>
+        <v>0.0002823024697136134</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.178061046337806e-14</v>
+        <v>0.0008228010265156627</v>
       </c>
       <c r="CC6" t="n">
-        <v>8.292978561079845e-15</v>
+        <v>0.0001714719401206821</v>
       </c>
       <c r="CD6" t="n">
-        <v>9.979282245659808e-15</v>
+        <v>0.000155802583321929</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.163869517526329e-14</v>
+        <v>0.001050362945534289</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.880146115767925e-15</v>
+        <v>0.0002247188676847145</v>
       </c>
       <c r="CG6" t="n">
-        <v>7.376809090604754e-15</v>
+        <v>0.0005554358940571547</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.025022267449804e-14</v>
+        <v>0.0003138779138680547</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.699360281200401e-16</v>
+        <v>1.211448034155183e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.990488783796881e-15</v>
+        <v>0.0005753013538196683</v>
       </c>
       <c r="CK6" t="n">
-        <v>3.054831100536212e-15</v>
+        <v>0.0003205084940418601</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.031425564872832e-15</v>
+        <v>1.990265445783734e-07</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.967105609803309e-14</v>
+        <v>0.001880872761830688</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.944317000293719e-14</v>
+        <v>0.00171949784271419</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.856243209612905e-14</v>
+        <v>0.0002386087726335973</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.141092123948303e-14</v>
+        <v>0.002188308630138636</v>
       </c>
       <c r="CQ6" t="n">
-        <v>8.939887269051108e-15</v>
+        <v>0.00125312153249979</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.055641389801886e-14</v>
+        <v>0.0002665976644493639</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.310102301979848e-14</v>
+        <v>0.0003076131106354296</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.925574550411564e-14</v>
+        <v>0.0008516318048350513</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.79734682405298e-14</v>
+        <v>0.0001942497037816793</v>
       </c>
       <c r="CV6" t="n">
-        <v>7.560006223469862e-15</v>
+        <v>0.0001733048702590168</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.02878267021914e-14</v>
+        <v>0.0008019228116609156</v>
       </c>
       <c r="CX6" t="n">
-        <v>7.138823325612397e-15</v>
+        <v>0.0003583927173167467</v>
       </c>
       <c r="CY6" t="n">
-        <v>6.400363061537153e-15</v>
+        <v>0.0008431558380834758</v>
       </c>
       <c r="CZ6" t="n">
-        <v>8.723201841583355e-15</v>
+        <v>0.0003851719957310706</v>
       </c>
       <c r="DA6" t="n">
-        <v>5.914558749584237e-15</v>
+        <v>0.000112943205749616</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.418384943529434e-16</v>
+        <v>0.0004937678459100425</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.909736050737445e-16</v>
+        <v>6.47251436021179e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.966210066671494e-15</v>
+        <v>8.584439638070762e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.388119880949305e-14</v>
+        <v>0.001072792452760041</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.616918811299037e-14</v>
+        <v>0.001738602528348565</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.896908481532601e-15</v>
+        <v>0.0004709800996351987</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.789106040509143e-14</v>
+        <v>0.001171614974737167</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.227947898799295e-14</v>
+        <v>0.0008110828930512071</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.883522286844056e-15</v>
+        <v>0.001947229728102684</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.836028616468421e-15</v>
+        <v>0.002475850516930223</v>
       </c>
       <c r="DL6" t="n">
-        <v>3.433870212916218e-14</v>
+        <v>0.0008013850310817361</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.991954168343961e-14</v>
+        <v>0.001526667037978768</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.126398389302398e-14</v>
+        <v>0.0004775434790644795</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.955249520234001e-14</v>
+        <v>0.0008098211255855858</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.751737198768581e-15</v>
+        <v>0.0008404544787481427</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.354653016280224e-14</v>
+        <v>0.0002482730196788907</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.18820628121192e-14</v>
+        <v>0.0004135054186917841</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.688927436289047e-14</v>
+        <v>0.0003684389812406152</v>
       </c>
       <c r="DT6" t="n">
-        <v>9.209516490886992e-15</v>
+        <v>0.001093794940970838</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.131350652131815e-14</v>
+        <v>0.0002127101179212332</v>
       </c>
       <c r="DV6" t="n">
-        <v>4.918960035029795e-15</v>
+        <v>0.0006668538553640246</v>
       </c>
       <c r="DW6" t="n">
-        <v>3.861981501469044e-15</v>
+        <v>0.0003636295441538095</v>
       </c>
       <c r="DX6" t="n">
-        <v>5.766327136781787e-15</v>
+        <v>0.0001120233719120733</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.002669237378353e-14</v>
+        <v>0.0001239319972228259</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.832850887663502e-14</v>
+        <v>5.568459164351225e-05</v>
       </c>
       <c r="EA6" t="n">
-        <v>9.987846595789496e-15</v>
+        <v>0.0005378618370741606</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.010510525087605e-15</v>
+        <v>0.0002089889894705266</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.057622807996257e-15</v>
+        <v>0.0002750195271801203</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.384195577304676e-14</v>
+        <v>0.0007454658043570817</v>
       </c>
       <c r="EE6" t="n">
-        <v>6.090031365486859e-16</v>
+        <v>0.0005265422514639795</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.569228654082957e-14</v>
+        <v>0.0002786263357847929</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.890702899147792e-15</v>
+        <v>0.00034146654070355</v>
       </c>
       <c r="EH6" t="n">
-        <v>7.779362345820308e-16</v>
+        <v>0.0001156838770839386</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.495904230564352e-14</v>
+        <v>0.0006751787732355297</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.798251455240648e-14</v>
+        <v>1.200296537717804e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>3.351219151967043e-15</v>
+        <v>0.000986939063295722</v>
       </c>
       <c r="EL6" t="n">
-        <v>8.700209979263084e-15</v>
+        <v>0.001064935466274619</v>
       </c>
       <c r="EM6" t="n">
-        <v>3.27048547714892e-15</v>
+        <v>0.0001793033006833866</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.056742211368467e-14</v>
+        <v>0.0001170728501165286</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.041894740242636e-14</v>
+        <v>0.0009469154756516218</v>
       </c>
       <c r="EP6" t="n">
-        <v>9.822077165814146e-15</v>
+        <v>0.0001183813001262024</v>
       </c>
       <c r="EQ6" t="n">
-        <v>7.010053988839009e-15</v>
+        <v>0.0005694408318959177</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.001050133899676e-14</v>
+        <v>0.0006276839994825423</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.230013558047765e-14</v>
+        <v>0.0009808212053030729</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.411818846373944e-14</v>
+        <v>0.0007166746072471142</v>
       </c>
       <c r="EU6" t="n">
-        <v>8.519616625677837e-15</v>
+        <v>0.0008622371824458241</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.224628884898774e-14</v>
+        <v>0.0001083206516341306</v>
       </c>
       <c r="EW6" t="n">
-        <v>6.165434238451437e-15</v>
+        <v>0.0003227491397410631</v>
       </c>
       <c r="EX6" t="n">
-        <v>6.229988313427581e-15</v>
+        <v>0.0001531619054730982</v>
       </c>
       <c r="EY6" t="n">
-        <v>9.01101940189563e-15</v>
+        <v>0.0006876936531625688</v>
       </c>
       <c r="EZ6" t="n">
-        <v>5.577977926015006e-15</v>
+        <v>0.0001535700284875929</v>
       </c>
       <c r="FA6" t="n">
-        <v>8.517294061336465e-15</v>
+        <v>0.0003721195680554956</v>
       </c>
       <c r="FB6" t="n">
-        <v>9.390518961385763e-15</v>
+        <v>0.0003902729949913919</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.551883177505693e-15</v>
+        <v>0.0001282765879295766</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.50134842895371e-16</v>
+        <v>0.0006909514777362347</v>
       </c>
       <c r="FE6" t="n">
-        <v>3.432371049302873e-15</v>
+        <v>0.0001020117342704907</v>
       </c>
       <c r="FF6" t="n">
-        <v>4.285639429598385e-15</v>
+        <v>0.0003346282464917749</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.398945385531689e-14</v>
+        <v>0.0005866656429134309</v>
       </c>
       <c r="FH6" t="n">
-        <v>6.22098689429711e-15</v>
+        <v>0.0004588393203448504</v>
       </c>
       <c r="FI6" t="n">
-        <v>6.895092983171761e-15</v>
+        <v>0.0002228739904239774</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.138038009308693e-15</v>
+        <v>0.0008715033764019608</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.965795758053675e-14</v>
+        <v>0.0007546350243501365</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.329537285999678e-14</v>
+        <v>8.801594958640635e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>7.811438636499881e-15</v>
+        <v>0.0007112227031029761</v>
       </c>
       <c r="FN6" t="n">
-        <v>3.600337598040106e-14</v>
+        <v>0.0005234941490925848</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.745526872999267e-14</v>
+        <v>0.0005207907524891198</v>
       </c>
       <c r="FP6" t="n">
-        <v>8.291747822207485e-15</v>
+        <v>0.001571000902913511</v>
       </c>
       <c r="FQ6" t="n">
-        <v>9.593657790928078e-15</v>
+        <v>0.0001597727386979386</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.518473914115381e-14</v>
+        <v>7.509443094022572e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.204475853501226e-14</v>
+        <v>0.0007578174700029194</v>
       </c>
       <c r="FT6" t="n">
-        <v>5.7773657548537e-14</v>
+        <v>0.000947454129345715</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.185203888227082e-14</v>
+        <v>0.00101508991792798</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.017045842888805e-14</v>
+        <v>0.0001191204646602273</v>
       </c>
       <c r="FW6" t="n">
-        <v>4.171527150944286e-16</v>
+        <v>0.0003527773078531027</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.370049703569055e-14</v>
+        <v>7.247063331305981e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.104867404706257e-14</v>
+        <v>0.0007793548866175115</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.690144453227662e-14</v>
+        <v>0.001303634722717106</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.758564824601524e-16</v>
+        <v>0.0004884860827587545</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.571322180715391e-14</v>
+        <v>0.0006853823433630168</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.32296090798179e-16</v>
+        <v>0.001167103415355086</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.158811358030175e-14</v>
+        <v>0.0005099367699585855</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.087081322176517e-14</v>
+        <v>0.0002742141950875521</v>
       </c>
       <c r="GF6" t="n">
-        <v>2.757361388031738e-15</v>
+        <v>0.001183338928967714</v>
       </c>
       <c r="GG6" t="n">
-        <v>6.008817422987643e-15</v>
+        <v>0.0006028725765645504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.43235011921206e-07</v>
+        <v>3.035987239385918e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>2.041262177954195e-06</v>
+        <v>1.776423674826333e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>4.545059709926136e-06</v>
+        <v>1.918129655109624e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>9.723950824991334e-06</v>
+        <v>1.779420721881309e-09</v>
       </c>
       <c r="E7" t="n">
-        <v>1.22159372040187e-06</v>
+        <v>1.403082372508635e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>1.615482119632361e-06</v>
+        <v>1.659184567515126e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.088596945919562e-08</v>
+        <v>2.113978103679415e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.771063580235932e-07</v>
+        <v>8.148952623798777e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>2.07901825888257e-06</v>
+        <v>2.607163374079846e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>2.01098282559542e-06</v>
+        <v>1.38471589750111e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>5.057394218965783e-07</v>
+        <v>1.001805749467621e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>4.155858732701745e-06</v>
+        <v>2.379855867928882e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>8.701181286596693e-06</v>
+        <v>2.199355142451509e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.689863766951021e-06</v>
+        <v>6.524031093135818e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>2.202196810685564e-06</v>
+        <v>4.3227549317848e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>1.43969543842104e-06</v>
+        <v>2.696998180340415e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.377920504339272e-06</v>
+        <v>3.22743409775228e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>3.331136213091668e-06</v>
+        <v>1.011250194693503e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>6.976730446695001e-07</v>
+        <v>1.887545120204948e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>1.497287712481921e-06</v>
+        <v>4.750693172184128e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>1.594116042724636e-06</v>
+        <v>9.169209835846459e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>1.414564621882164e-06</v>
+        <v>1.332946975018956e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>8.446361789538059e-06</v>
+        <v>4.733397562795005e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>9.87084831649554e-08</v>
+        <v>3.288407324220088e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.200894623972999e-08</v>
+        <v>1.827215267979909e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.650916025639162e-07</v>
+        <v>7.442228500131876e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.277863467905263e-07</v>
+        <v>7.862879236597564e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.550265665173356e-06</v>
+        <v>1.057117449132505e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.327606810264115e-06</v>
+        <v>3.682478766364738e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.752223511175544e-06</v>
+        <v>2.126437692595573e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.855875891327742e-06</v>
+        <v>2.570256008027627e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.57007195866754e-06</v>
+        <v>1.831200080459894e-09</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.176589648821391e-06</v>
+        <v>1.137883121060668e-09</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.356721265390661e-07</v>
+        <v>7.210804731094811e-10</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.259459036707995e-07</v>
+        <v>1.303197549873403e-10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.531986069698178e-07</v>
+        <v>1.604987143188907e-09</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.938986997629399e-06</v>
+        <v>1.286070028250208e-09</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.081693524924049e-07</v>
+        <v>4.767686245799041e-11</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.097188922169153e-07</v>
+        <v>4.7713993867049e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.016105210917885e-06</v>
+        <v>1.248178449486659e-09</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.090311105959699e-07</v>
+        <v>2.674849453043748e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.437434432067676e-06</v>
+        <v>1.711956409966575e-10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.10335530887096e-07</v>
+        <v>8.453772126770787e-10</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.786090587709623e-07</v>
+        <v>1.731179088970691e-09</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.037680874560465e-08</v>
+        <v>2.172207413941862e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.528259852231713e-07</v>
+        <v>4.085973226430895e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.64341336889629e-07</v>
+        <v>6.122292894872317e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.661530743353069e-06</v>
+        <v>7.114835942623188e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.197083282837411e-06</v>
+        <v>3.578792817648946e-11</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.626180043487693e-07</v>
+        <v>2.15591677843463e-09</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.219917855152744e-07</v>
+        <v>1.901758306388501e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.632103476367774e-06</v>
+        <v>8.582017319014312e-10</v>
       </c>
       <c r="BA7" t="n">
-        <v>8.161305800058472e-07</v>
+        <v>1.548907668791344e-10</v>
       </c>
       <c r="BB7" t="n">
-        <v>7.063239877425076e-07</v>
+        <v>2.438826918194081e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>9.51893753153854e-07</v>
+        <v>1.325846321620361e-09</v>
       </c>
       <c r="BD7" t="n">
-        <v>8.928687407205871e-07</v>
+        <v>6.315308276327869e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.361350425417186e-06</v>
+        <v>1.399841020877091e-09</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.824283562105848e-06</v>
+        <v>2.580713642785781e-09</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.004063165055413e-06</v>
+        <v>1.631649260147583e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.075154841601034e-06</v>
+        <v>8.662044415075343e-10</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.934031388373114e-06</v>
+        <v>2.669052756587575e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>5.431140834843973e-07</v>
+        <v>1.845465336103302e-09</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.610549867971713e-07</v>
+        <v>2.654202635454794e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.572931862232508e-06</v>
+        <v>7.376316224494417e-11</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.28283556932729e-06</v>
+        <v>3.530692183062456e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>7.806330586390686e-07</v>
+        <v>5.299325978036507e-10</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.473423362265748e-07</v>
+        <v>1.094893176123435e-09</v>
       </c>
       <c r="BP7" t="n">
-        <v>3.589424522942863e-06</v>
+        <v>7.606532292925294e-09</v>
       </c>
       <c r="BQ7" t="n">
-        <v>3.8454254536191e-07</v>
+        <v>1.686041084525414e-09</v>
       </c>
       <c r="BR7" t="n">
-        <v>4.148719199292827e-07</v>
+        <v>1.075985300857951e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>4.728826752398163e-08</v>
+        <v>3.877651977290952e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>5.185443114896771e-07</v>
+        <v>5.045519557711486e-10</v>
       </c>
       <c r="BU7" t="n">
-        <v>2.091097485390492e-06</v>
+        <v>5.606011210801398e-10</v>
       </c>
       <c r="BV7" t="n">
-        <v>3.565243957837083e-07</v>
+        <v>3.331068754164335e-09</v>
       </c>
       <c r="BW7" t="n">
-        <v>9.438128358851827e-07</v>
+        <v>6.344306191508053e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.85079147235956e-06</v>
+        <v>1.398471116687006e-09</v>
       </c>
       <c r="BY7" t="n">
-        <v>3.801696948357858e-07</v>
+        <v>1.68757063878644e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.056014404341113e-06</v>
+        <v>1.339105715203459e-09</v>
       </c>
       <c r="CA7" t="n">
-        <v>8.50573940169852e-07</v>
+        <v>2.206625548950569e-09</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.680353586332785e-07</v>
+        <v>4.141168519211647e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.252670583402505e-07</v>
+        <v>1.733059362685196e-09</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.551106038277794e-06</v>
+        <v>3.082615829264057e-10</v>
       </c>
       <c r="CE7" t="n">
-        <v>4.789696106399788e-08</v>
+        <v>1.009497208048771e-10</v>
       </c>
       <c r="CF7" t="n">
-        <v>3.885429578076582e-07</v>
+        <v>1.007020578036588e-10</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.232093720522244e-06</v>
+        <v>9.59976986791844e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>7.425347234857327e-07</v>
+        <v>4.590521018865701e-10</v>
       </c>
       <c r="CI7" t="n">
-        <v>7.803814696671907e-07</v>
+        <v>2.540726518063252e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.476646608964074e-07</v>
+        <v>5.788283186092258e-10</v>
       </c>
       <c r="CK7" t="n">
-        <v>4.321758240166673e-08</v>
+        <v>2.501285567557687e-10</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.058572706824634e-06</v>
+        <v>6.593189327830373e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>5.091049501970701e-07</v>
+        <v>2.542679178318963e-09</v>
       </c>
       <c r="CN7" t="n">
-        <v>7.461596851499053e-07</v>
+        <v>3.717162799787843e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>4.124473207411938e-07</v>
+        <v>6.849038558520704e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>4.067509962624172e-06</v>
+        <v>1.952568995378101e-09</v>
       </c>
       <c r="CQ7" t="n">
-        <v>9.477657272327633e-07</v>
+        <v>5.184314755268815e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>5.169184987607878e-06</v>
+        <v>7.228834197903211e-11</v>
       </c>
       <c r="CS7" t="n">
-        <v>6.584804168596747e-08</v>
+        <v>2.600658577378567e-10</v>
       </c>
       <c r="CT7" t="n">
-        <v>5.867570251893994e-08</v>
+        <v>2.080116967562162e-09</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.117803947181528e-07</v>
+        <v>3.943982085363729e-10</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.489492092332512e-06</v>
+        <v>4.049206456246957e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>5.901324016122089e-07</v>
+        <v>1.001367599950953e-10</v>
       </c>
       <c r="CX7" t="n">
-        <v>4.433606477505236e-07</v>
+        <v>1.108898806112535e-10</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.923695663208491e-06</v>
+        <v>1.032624430408191e-09</v>
       </c>
       <c r="CZ7" t="n">
-        <v>6.691163889627205e-07</v>
+        <v>2.385509567659483e-10</v>
       </c>
       <c r="DA7" t="n">
-        <v>7.201359721875633e-07</v>
+        <v>2.286592581945968e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.68708780279303e-07</v>
+        <v>4.415709464744566e-10</v>
       </c>
       <c r="DC7" t="n">
-        <v>2.209239937656093e-07</v>
+        <v>1.264338911344254e-10</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.085727376448631e-06</v>
+        <v>1.844203678658118e-10</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.24377799895592e-06</v>
+        <v>4.537681785876657e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.41169232140237e-07</v>
+        <v>4.784302287674791e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>6.527012601509341e-07</v>
+        <v>5.800488978024987e-10</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.825742970140709e-06</v>
+        <v>5.778581613213873e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.722464842008776e-06</v>
+        <v>2.578608659931092e-09</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.368081484542927e-06</v>
+        <v>3.74310360484742e-10</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.321418608313252e-06</v>
+        <v>4.46356951400162e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>3.011357648574631e-06</v>
+        <v>3.946004856203444e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.874564077297691e-06</v>
+        <v>4.033912093248659e-10</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.086820446971615e-07</v>
+        <v>1.279017225463974e-09</v>
       </c>
       <c r="DO7" t="n">
-        <v>8.782425311437692e-07</v>
+        <v>1.922468850779069e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.223524691340572e-06</v>
+        <v>1.316765252390439e-09</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.836574483604636e-07</v>
+        <v>2.114386443707872e-11</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.73426190031023e-06</v>
+        <v>1.471293642474336e-09</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.936366970767267e-06</v>
+        <v>1.233762647601111e-09</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.331322664555046e-06</v>
+        <v>2.960772516047427e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.067367171955993e-07</v>
+        <v>1.330682564137931e-09</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.41393911690102e-06</v>
+        <v>2.962495526670494e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>8.531003459211206e-08</v>
+        <v>4.080529247829645e-10</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.962095439012046e-06</v>
+        <v>3.715732721509823e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.478876754390512e-07</v>
+        <v>7.095742882157197e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.410792603768641e-06</v>
+        <v>2.200643889338494e-09</v>
       </c>
       <c r="EA7" t="n">
-        <v>2.398888341303973e-07</v>
+        <v>3.085013633441491e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>8.691986863595957e-07</v>
+        <v>2.63497057506612e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>3.559083268100949e-07</v>
+        <v>1.278384731406845e-09</v>
       </c>
       <c r="ED7" t="n">
-        <v>5.174988473299891e-07</v>
+        <v>1.655362846797459e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.723770310491091e-06</v>
+        <v>4.153307697762898e-10</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.736741637614614e-06</v>
+        <v>3.601213494075495e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>1.421683805347129e-06</v>
+        <v>1.811009675556363e-09</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.814100869523827e-07</v>
+        <v>5.289745308445504e-10</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.045465296556358e-06</v>
+        <v>2.781176622335124e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>7.507641157644684e-07</v>
+        <v>1.211893363439742e-10</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.623727257538121e-06</v>
+        <v>1.109423330980519e-09</v>
       </c>
       <c r="EL7" t="n">
-        <v>9.396802624905831e-08</v>
+        <v>6.366459581741424e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.787052721942018e-07</v>
+        <v>1.714467318114643e-10</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.989382892337744e-07</v>
+        <v>5.669056335477762e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>3.057609092138591e-06</v>
+        <v>8.776225857154429e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>2.295682293151913e-07</v>
+        <v>3.315033803019674e-10</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.284269757206857e-08</v>
+        <v>5.180168793916806e-11</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.37979839109903e-06</v>
+        <v>9.923545318812899e-10</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.00505133104889e-06</v>
+        <v>6.954197773190174e-10</v>
       </c>
       <c r="ET7" t="n">
-        <v>8.755962426221231e-07</v>
+        <v>6.058887280779857e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>8.059354854594858e-07</v>
+        <v>4.985072354912745e-10</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.122533697336621e-07</v>
+        <v>2.964620771095383e-10</v>
       </c>
       <c r="EW7" t="n">
-        <v>5.495019763657183e-07</v>
+        <v>2.149581068700002e-10</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.369780420645839e-06</v>
+        <v>2.300269558164203e-10</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.045665041805478e-07</v>
+        <v>1.944388816621512e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>3.980740928000159e-07</v>
+        <v>1.280592576424766e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.656589461163094e-06</v>
+        <v>7.865001427909135e-10</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.187594875773357e-06</v>
+        <v>2.408856170088569e-10</v>
       </c>
       <c r="FC7" t="n">
-        <v>8.572240517423779e-07</v>
+        <v>1.019426099091447e-09</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.154846245299268e-07</v>
+        <v>5.083650167492237e-10</v>
       </c>
       <c r="FE7" t="n">
-        <v>3.737999065833719e-08</v>
+        <v>4.18187900974587e-10</v>
       </c>
       <c r="FF7" t="n">
-        <v>8.580799431001651e-07</v>
+        <v>1.388800185964101e-10</v>
       </c>
       <c r="FG7" t="n">
-        <v>9.140686074715632e-08</v>
+        <v>7.350127173566534e-10</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.57027955083322e-06</v>
+        <v>1.235871627258689e-09</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.622055947336776e-06</v>
+        <v>2.620249295315347e-10</v>
       </c>
       <c r="FJ7" t="n">
-        <v>1.812669324863236e-06</v>
+        <v>8.969925913149268e-10</v>
       </c>
       <c r="FK7" t="n">
-        <v>8.53467327033286e-07</v>
+        <v>4.08971190246632e-10</v>
       </c>
       <c r="FL7" t="n">
-        <v>8.773545232543256e-07</v>
+        <v>6.117848450060137e-10</v>
       </c>
       <c r="FM7" t="n">
-        <v>8.03487978373596e-08</v>
+        <v>1.844138175499666e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>3.887631123689061e-07</v>
+        <v>1.018770179328499e-09</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.467568037900492e-06</v>
+        <v>7.357965348120388e-10</v>
       </c>
       <c r="FP7" t="n">
-        <v>4.409991447573702e-07</v>
+        <v>8.49644965494889e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1.19539777188038e-07</v>
+        <v>3.764171641051917e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>6.197502102622821e-07</v>
+        <v>9.300136216694455e-10</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.026417976390803e-06</v>
+        <v>1.18658483039269e-09</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.227749407917145e-06</v>
+        <v>1.301143748300149e-09</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.459761827201874e-07</v>
+        <v>1.614351208267806e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>5.847693955729483e-07</v>
+        <v>1.692364914873679e-09</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.207421632898331e-06</v>
+        <v>5.600117036763663e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.116492853725504e-06</v>
+        <v>6.89718504531811e-10</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.245253315573791e-06</v>
+        <v>3.422500616245827e-10</v>
       </c>
       <c r="FZ7" t="n">
-        <v>6.18765625404194e-07</v>
+        <v>2.583424141278101e-09</v>
       </c>
       <c r="GA7" t="n">
-        <v>7.960807124618441e-08</v>
+        <v>1.945057892527302e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.373894742253469e-06</v>
+        <v>1.922482173455364e-09</v>
       </c>
       <c r="GC7" t="n">
-        <v>8.466263921036443e-07</v>
+        <v>1.251040382399538e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.440668029317749e-06</v>
+        <v>2.86720069908597e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>3.345127197462716e-07</v>
+        <v>1.66642355470259e-09</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.412317929971323e-07</v>
+        <v>1.834308926973449e-09</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.78733091615868e-06</v>
+        <v>3.647055990541048e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3416 +4987,3416 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.830188693460968e-09</v>
+        <v>0.0004757003043778241</v>
       </c>
       <c r="B9" t="n">
-        <v>1.721017439670902e-09</v>
+        <v>0.008834927342832088</v>
       </c>
       <c r="C9" t="n">
-        <v>5.49200462884869e-09</v>
+        <v>0.001265270169824362</v>
       </c>
       <c r="D9" t="n">
-        <v>7.83682718719092e-09</v>
+        <v>0.004772200714796782</v>
       </c>
       <c r="E9" t="n">
-        <v>2.184222802625868e-09</v>
+        <v>0.0005554129602387547</v>
       </c>
       <c r="F9" t="n">
-        <v>2.627816853006948e-10</v>
+        <v>0.001327514182776213</v>
       </c>
       <c r="G9" t="n">
-        <v>7.712575023077761e-10</v>
+        <v>0.000639726931694895</v>
       </c>
       <c r="H9" t="n">
-        <v>6.470040059269877e-09</v>
+        <v>0.001185958390124142</v>
       </c>
       <c r="I9" t="n">
-        <v>3.952136395923844e-09</v>
+        <v>0.0001588397135492414</v>
       </c>
       <c r="J9" t="n">
-        <v>1.936174776062671e-09</v>
+        <v>0.001146467868238688</v>
       </c>
       <c r="K9" t="n">
-        <v>2.305188484541532e-09</v>
+        <v>0.006360914092510939</v>
       </c>
       <c r="L9" t="n">
-        <v>5.145462278477453e-09</v>
+        <v>4.689315028372221e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.827763160937138e-09</v>
+        <v>0.004433211870491505</v>
       </c>
       <c r="N9" t="n">
-        <v>3.413907379012926e-09</v>
+        <v>0.001815716503188014</v>
       </c>
       <c r="O9" t="n">
-        <v>2.734644455326674e-10</v>
+        <v>0.002124357968568802</v>
       </c>
       <c r="P9" t="n">
-        <v>1.883938560709453e-10</v>
+        <v>0.0002364723477512598</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.044801826807998e-09</v>
+        <v>0.0002641232858877629</v>
       </c>
       <c r="R9" t="n">
-        <v>1.892323187036027e-09</v>
+        <v>0.001136663486249745</v>
       </c>
       <c r="S9" t="n">
-        <v>5.491461174678136e-10</v>
+        <v>0.0002845863637048751</v>
       </c>
       <c r="T9" t="n">
-        <v>1.067414268085543e-09</v>
+        <v>0.001290799584239721</v>
       </c>
       <c r="U9" t="n">
-        <v>1.223273371486755e-09</v>
+        <v>0.0002432675391901284</v>
       </c>
       <c r="V9" t="n">
-        <v>4.84940620992802e-09</v>
+        <v>0.00099631876219064</v>
       </c>
       <c r="W9" t="n">
-        <v>4.617538795770315e-09</v>
+        <v>2.319971827091649e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>1.095210033774663e-10</v>
+        <v>0.0008311421843245625</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.225853307751379e-10</v>
+        <v>0.0008641517488285899</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.110094571821207e-09</v>
+        <v>0.0004335917765274644</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.790935482721579e-09</v>
+        <v>0.0005595075199380517</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.270021225494247e-09</v>
+        <v>0.0006546992808580399</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.010787758521815e-09</v>
+        <v>0.002101126359775662</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.530271852625333e-09</v>
+        <v>1.22541532618925e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.929625126351198e-09</v>
+        <v>0.0004865142109338194</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.928331938572114e-10</v>
+        <v>0.000780407921411097</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.649064884645668e-09</v>
+        <v>5.190539013710804e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.403897664786768e-09</v>
+        <v>0.0001437144237570465</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.593935206045671e-09</v>
+        <v>0.0002488910395186394</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.98520258196811e-10</v>
+        <v>0.0003594677546061575</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.643821606085339e-09</v>
+        <v>0.0003666837874334306</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.700567630104956e-09</v>
+        <v>0.0009519687155261636</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.81002412847198e-10</v>
+        <v>9.1270383563824e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.125810555890894e-10</v>
+        <v>0.0004861097841057926</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.413110517489713e-09</v>
+        <v>0.0009370188927277923</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.982818353951643e-09</v>
+        <v>0.001258728909306228</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.953644468422056e-10</v>
+        <v>0.0001541503588669002</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.273842475946196e-09</v>
+        <v>1.348592923022807e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.769092981111612e-10</v>
+        <v>0.0004701119614765048</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.896896583199805e-09</v>
+        <v>0.0009566633380018175</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.477352545326994e-09</v>
+        <v>0.006563181057572365</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.783614393488733e-09</v>
+        <v>0.00034930175752379</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.796146590990702e-09</v>
+        <v>0.001024592551402748</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.271996229514684e-09</v>
+        <v>0.0009862694423645735</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.436500474127911e-09</v>
+        <v>2.97377300739754e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9.872062056714981e-10</v>
+        <v>0.0002579378196969628</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.260423539103613e-09</v>
+        <v>7.675562665099278e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>4.353679194935012e-09</v>
+        <v>0.0003358070680405945</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.385510455837903e-09</v>
+        <v>1.737353159114718e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>6.36169616985427e-10</v>
+        <v>0.001397694926708937</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.113109687229553e-09</v>
+        <v>0.001755109755322337</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.10809472708695e-09</v>
+        <v>0.0003387499018572271</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.855550462754763e-09</v>
+        <v>0.002919780556112528</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.747138960756956e-09</v>
+        <v>0.001596001791767776</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.584282149913463e-10</v>
+        <v>0.001272153574973345</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.168967672133704e-09</v>
+        <v>0.0007824889617040753</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.093961836204585e-10</v>
+        <v>3.532094706315547e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.030948937330578e-10</v>
+        <v>0.0009512240067124367</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.397024051996709e-09</v>
+        <v>0.001421216526068747</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.958992384449743e-09</v>
+        <v>0.0008909340249374509</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.71912872826141e-09</v>
+        <v>0.0001341521274298429</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.679350297185579e-09</v>
+        <v>0.001228187931701541</v>
       </c>
       <c r="BQ9" t="n">
-        <v>7.71896213613843e-10</v>
+        <v>0.0005712807178497314</v>
       </c>
       <c r="BR9" t="n">
-        <v>8.796560146961951e-10</v>
+        <v>0.0005565170431509614</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.777257563340129e-09</v>
+        <v>0.0004515584150794894</v>
       </c>
       <c r="BT9" t="n">
-        <v>7.696019377334551e-10</v>
+        <v>0.0006379885016940534</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.649404251542364e-09</v>
+        <v>0.0006745310965925455</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.855586433980761e-09</v>
+        <v>0.003076849039644003</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.101221863171077e-09</v>
+        <v>0.001007916056551039</v>
       </c>
       <c r="BX9" t="n">
-        <v>4.669245434740787e-09</v>
+        <v>0.0008592843078076839</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.305407115737012e-09</v>
+        <v>0.0006841433933004737</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4.83548401319922e-09</v>
+        <v>0.001290147891268134</v>
       </c>
       <c r="CA9" t="n">
-        <v>7.364288068245628e-10</v>
+        <v>0.0003485959023237228</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.796307712633507e-09</v>
+        <v>0.0002107857872033492</v>
       </c>
       <c r="CC9" t="n">
-        <v>8.058258504917148e-10</v>
+        <v>0.0008366513648070395</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.133266480131013e-10</v>
+        <v>0.0003545791551005095</v>
       </c>
       <c r="CE9" t="n">
-        <v>7.649891831107425e-10</v>
+        <v>0.001592238317243755</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.957440876054761e-09</v>
+        <v>0.000505354255437851</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.597381671381015e-09</v>
+        <v>0.0005435219500213861</v>
       </c>
       <c r="CH9" t="n">
-        <v>3.80202508365457e-10</v>
+        <v>0.0004496184119489044</v>
       </c>
       <c r="CI9" t="n">
-        <v>5.063829355833604e-10</v>
+        <v>0.0002042622654698789</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.692895823524054e-11</v>
+        <v>0.0001840167824411765</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.364967111034844e-09</v>
+        <v>0.0001516045449534431</v>
       </c>
       <c r="CL9" t="n">
-        <v>7.618106145912407e-10</v>
+        <v>0.0003004030149895698</v>
       </c>
       <c r="CM9" t="n">
-        <v>7.318501360487062e-10</v>
+        <v>0.001489593996666372</v>
       </c>
       <c r="CN9" t="n">
-        <v>7.42406802700657e-10</v>
+        <v>0.0008737806929275393</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.192273502148566e-10</v>
+        <v>0.000338357116561383</v>
       </c>
       <c r="CP9" t="n">
-        <v>7.978592231339121e-10</v>
+        <v>0.002005392918363214</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.528891179271909e-09</v>
+        <v>0.0004511118750087917</v>
       </c>
       <c r="CR9" t="n">
-        <v>6.659243712014984e-10</v>
+        <v>0.0009651635773479939</v>
       </c>
       <c r="CS9" t="n">
-        <v>8.412665009061016e-10</v>
+        <v>0.0006165110389702022</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.873013298960615e-10</v>
+        <v>0.001595028792507946</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.252843828680739e-09</v>
+        <v>0.0002106363535858691</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.04523126265299e-10</v>
+        <v>0.0003386965836398304</v>
       </c>
       <c r="CW9" t="n">
-        <v>7.249757461025297e-10</v>
+        <v>0.001270287204533815</v>
       </c>
       <c r="CX9" t="n">
-        <v>8.696551256903717e-10</v>
+        <v>0.0006919715669937432</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.089920154129231e-09</v>
+        <v>0.0008648062357679009</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.066683934045301e-10</v>
+        <v>0.0002632573305163532</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.687208038893885e-10</v>
+        <v>0.0002129889617208391</v>
       </c>
       <c r="DB9" t="n">
-        <v>3.478791144040372e-10</v>
+        <v>0.0003280041855759919</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.334034521211947e-09</v>
+        <v>0.0002933065989054739</v>
       </c>
       <c r="DD9" t="n">
-        <v>7.761376541459697e-10</v>
+        <v>0.000211854072404094</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.114154407095725e-09</v>
+        <v>0.0005827047862112522</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.089687534123641e-09</v>
+        <v>0.001412880956195295</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.011062871787317e-09</v>
+        <v>0.000508785480633378</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.19205528728672e-10</v>
+        <v>0.001494816271588206</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.146970157212991e-09</v>
+        <v>0.000950078887399286</v>
       </c>
       <c r="DJ9" t="n">
-        <v>6.993262635646147e-10</v>
+        <v>0.0008858470246195793</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.033308881850161e-10</v>
+        <v>0.000867180700879544</v>
       </c>
       <c r="DL9" t="n">
-        <v>4.18009005187514e-09</v>
+        <v>0.0005431594327092171</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.339867661265259e-09</v>
+        <v>0.0001878678885987028</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.273958272207665e-09</v>
+        <v>0.0006068787188269198</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.137240939781293e-10</v>
+        <v>0.000161686388310045</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.037129132048676e-09</v>
+        <v>0.0006328690215013921</v>
       </c>
       <c r="DQ9" t="n">
-        <v>9.833986958085461e-10</v>
+        <v>2.980148565256968e-05</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.785206205084933e-09</v>
+        <v>0.000946897198446095</v>
       </c>
       <c r="DS9" t="n">
-        <v>3.733598763488999e-09</v>
+        <v>0.0005755426245741546</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.944137321771791e-10</v>
+        <v>0.0005562203004956245</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.248919438509802e-09</v>
+        <v>6.591425335500389e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>7.968840587402326e-10</v>
+        <v>0.0007987458957359195</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.411383870359884e-10</v>
+        <v>3.084381751250476e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.974609530388307e-11</v>
+        <v>0.0004185622092336416</v>
       </c>
       <c r="DY9" t="n">
-        <v>7.20081883009982e-10</v>
+        <v>0.001008591847494245</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.115347008668778e-09</v>
+        <v>0.0001311722007812932</v>
       </c>
       <c r="EA9" t="n">
-        <v>6.218343062691645e-10</v>
+        <v>0.001497559482231736</v>
       </c>
       <c r="EB9" t="n">
-        <v>4.398241215675114e-10</v>
+        <v>0.0008779211202636361</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.155601530606788e-10</v>
+        <v>0.0002068410540232435</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.491884724762031e-10</v>
+        <v>0.0001407541567459702</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.056653958248944e-09</v>
+        <v>0.0001922975643537939</v>
       </c>
       <c r="EF9" t="n">
-        <v>8.433128084739394e-10</v>
+        <v>8.395902113988996e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.215950784505537e-09</v>
+        <v>0.0009115683496929705</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.313056330332074e-09</v>
+        <v>0.0003326061414554715</v>
       </c>
       <c r="EI9" t="n">
-        <v>8.761305569926492e-10</v>
+        <v>0.0006553985876962543</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.908530222749505e-09</v>
+        <v>0.0006805000593885779</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.386316506035712e-09</v>
+        <v>0.0001730609074002132</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.905704010736088e-10</v>
+        <v>0.000487089972011745</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.020950740089233e-09</v>
+        <v>0.0003079472226090729</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.345706213129461e-09</v>
+        <v>4.966773121850565e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>5.86626303089588e-10</v>
+        <v>0.0004215092048980296</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.744357991384504e-10</v>
+        <v>0.00145602785050869</v>
       </c>
       <c r="EQ9" t="n">
-        <v>4.092338135031071e-10</v>
+        <v>0.0003869005886372179</v>
       </c>
       <c r="ER9" t="n">
-        <v>6.273484509655702e-10</v>
+        <v>0.00082682870561257</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.106287366743231e-09</v>
+        <v>0.0004083530220668763</v>
       </c>
       <c r="ET9" t="n">
-        <v>2.354632044898608e-10</v>
+        <v>0.0009617740288376808</v>
       </c>
       <c r="EU9" t="n">
-        <v>7.058241768831408e-10</v>
+        <v>0.0009527216898277402</v>
       </c>
       <c r="EV9" t="n">
-        <v>5.110427636623172e-09</v>
+        <v>0.0003107591765001416</v>
       </c>
       <c r="EW9" t="n">
-        <v>8.44302627811544e-10</v>
+        <v>0.0003514891723170877</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.19386472929861e-10</v>
+        <v>0.000101807432656642</v>
       </c>
       <c r="EY9" t="n">
-        <v>6.952630138279403e-10</v>
+        <v>0.001360882306471467</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.14765086323132e-09</v>
+        <v>0.0003223094681743532</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.235696958789561e-10</v>
+        <v>0.0007458148174919188</v>
       </c>
       <c r="FB9" t="n">
-        <v>4.040848211595005e-10</v>
+        <v>0.0001742087479215115</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.527558496361436e-10</v>
+        <v>0.0003984635113738477</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.653344128271783e-11</v>
+        <v>0.0004148453299421817</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.120186026743909e-09</v>
+        <v>0.0001908191479742527</v>
       </c>
       <c r="FF9" t="n">
-        <v>5.95488103272146e-10</v>
+        <v>0.0003662736562546343</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.34298305809466e-09</v>
+        <v>8.778923074714839e-06</v>
       </c>
       <c r="FH9" t="n">
-        <v>7.266913737424829e-10</v>
+        <v>0.000294468569336459</v>
       </c>
       <c r="FI9" t="n">
-        <v>3.707586737622393e-10</v>
+        <v>0.0004964761319570243</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2.004700433433371e-10</v>
+        <v>0.0006959050660952926</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.839221663857415e-09</v>
+        <v>0.0008114571101032197</v>
       </c>
       <c r="FL9" t="n">
-        <v>9.696822234062097e-10</v>
+        <v>0.0009975258726626635</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.032791074884187e-10</v>
+        <v>0.0001037623587762937</v>
       </c>
       <c r="FN9" t="n">
-        <v>4.151605725866148e-09</v>
+        <v>5.785110261058435e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.47486589607837e-09</v>
+        <v>0.0005549733177758753</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.333956583555619e-09</v>
+        <v>0.0004909569397568703</v>
       </c>
       <c r="FQ9" t="n">
-        <v>8.653238126044016e-10</v>
+        <v>0.0003496363351587206</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.414725252033236e-10</v>
+        <v>0.0005376752815209329</v>
       </c>
       <c r="FS9" t="n">
-        <v>4.602251912899646e-09</v>
+        <v>0.000880930689163506</v>
       </c>
       <c r="FT9" t="n">
-        <v>6.072622404929007e-09</v>
+        <v>0.0009383873548358679</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.714746344916307e-09</v>
+        <v>0.0002386322303209454</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.033104128442488e-10</v>
+        <v>0.0002078504476230592</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.690877993176798e-09</v>
+        <v>0.0009497205610387027</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.334022337040608e-09</v>
+        <v>0.0004778321599587798</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.004813204337097e-09</v>
+        <v>0.001066491473466158</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.980293955014758e-09</v>
+        <v>0.000579899875447154</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.812957113553011e-10</v>
+        <v>0.0003212415613234043</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.232120794281144e-10</v>
+        <v>0.0004152330802753568</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.233914304066275e-09</v>
+        <v>0.0008938138489611447</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.682775113171942e-09</v>
+        <v>0.001269704080186784</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.170634478242505e-09</v>
+        <v>0.002167029539123178</v>
       </c>
       <c r="GF9" t="n">
-        <v>2.717105207494797e-09</v>
+        <v>0.0004341081657912582</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.533086045948153e-10</v>
+        <v>0.0004587145813275129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.292005885668914e-07</v>
+        <v>0.008982026018202305</v>
       </c>
       <c r="B10" t="n">
-        <v>2.866107138288498e-07</v>
+        <v>0.07476583123207092</v>
       </c>
       <c r="C10" t="n">
-        <v>6.883835794724291e-07</v>
+        <v>0.01055107731372118</v>
       </c>
       <c r="D10" t="n">
-        <v>1.73987791640684e-06</v>
+        <v>0.03581808134913445</v>
       </c>
       <c r="E10" t="n">
-        <v>7.309686793632864e-07</v>
+        <v>0.002866887953132391</v>
       </c>
       <c r="F10" t="n">
-        <v>2.700895151974692e-07</v>
+        <v>0.0119422422721982</v>
       </c>
       <c r="G10" t="n">
-        <v>2.467202193656703e-07</v>
+        <v>0.007292349822819233</v>
       </c>
       <c r="H10" t="n">
-        <v>4.530568560312531e-07</v>
+        <v>0.0002347344416193664</v>
       </c>
       <c r="I10" t="n">
-        <v>3.975483480189723e-07</v>
+        <v>0.001267667859792709</v>
       </c>
       <c r="J10" t="n">
-        <v>5.746796887251548e-07</v>
+        <v>0.01420522108674049</v>
       </c>
       <c r="K10" t="n">
-        <v>5.256981125967286e-07</v>
+        <v>0.05019188299775124</v>
       </c>
       <c r="L10" t="n">
-        <v>6.870109814371972e-07</v>
+        <v>0.001502024126239121</v>
       </c>
       <c r="M10" t="n">
-        <v>2.464987119310535e-06</v>
+        <v>0.04188520461320877</v>
       </c>
       <c r="N10" t="n">
-        <v>1.211569951919955e-06</v>
+        <v>0.01811774075031281</v>
       </c>
       <c r="O10" t="n">
-        <v>1.087873215510626e-06</v>
+        <v>0.02202890813350677</v>
       </c>
       <c r="P10" t="n">
-        <v>4.125954262690357e-07</v>
+        <v>0.005106458906084299</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.866171239991672e-07</v>
+        <v>0.008410939015448093</v>
       </c>
       <c r="R10" t="n">
-        <v>6.041143478796585e-07</v>
+        <v>0.002031057374551892</v>
       </c>
       <c r="S10" t="n">
-        <v>6.224005346666672e-07</v>
+        <v>0.0008872647304087877</v>
       </c>
       <c r="T10" t="n">
-        <v>4.466559175853035e-07</v>
+        <v>0.01563003845512867</v>
       </c>
       <c r="U10" t="n">
-        <v>3.479683030604974e-08</v>
+        <v>0.007673740386962891</v>
       </c>
       <c r="V10" t="n">
-        <v>3.065578084715526e-07</v>
+        <v>0.005551733076572418</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72616944382753e-06</v>
+        <v>0.001755284145474434</v>
       </c>
       <c r="X10" t="n">
-        <v>2.999321679908462e-08</v>
+        <v>0.009111203253269196</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.723801331849245e-08</v>
+        <v>0.005857695825397968</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.570592047528407e-07</v>
+        <v>0.004857013933360577</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.050179392336759e-07</v>
+        <v>0.004959485493600368</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.930047517362254e-07</v>
+        <v>0.01002527587115765</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.148682439923505e-08</v>
+        <v>0.01360766403377056</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.347963399846776e-07</v>
+        <v>0.002366314176470041</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.261385816382244e-07</v>
+        <v>0.008188414387404919</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.621851701358537e-07</v>
+        <v>0.0009805244626477361</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.667293407896068e-07</v>
+        <v>0.0005675717256963253</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.210105319340073e-07</v>
+        <v>0.00669056037440896</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.11897648480408e-07</v>
+        <v>0.0006905984482727945</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.275589849887183e-07</v>
+        <v>0.001173008349724114</v>
       </c>
       <c r="AK10" t="n">
-        <v>4.162223632420137e-08</v>
+        <v>0.009757685475051403</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.444077722429938e-07</v>
+        <v>0.005870350636541843</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.556729583602646e-08</v>
+        <v>0.005808597430586815</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.339302902029885e-07</v>
+        <v>0.007113522849977016</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.108197409394052e-07</v>
+        <v>0.005125285126268864</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.910010034109291e-07</v>
+        <v>0.003966697957366705</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.785059625258327e-09</v>
+        <v>0.00182672415394336</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.946826510059509e-08</v>
+        <v>0.004661960992962122</v>
       </c>
       <c r="AS10" t="n">
-        <v>6.441847943960965e-08</v>
+        <v>0.003452432341873646</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.126008370988529e-07</v>
+        <v>0.005394048057496548</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.941818593171774e-07</v>
+        <v>0.06069452315568924</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.575000337401434e-07</v>
+        <v>0.00250936159864068</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.139338673463499e-07</v>
+        <v>0.004014389123767614</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.108162948071367e-07</v>
+        <v>0.01260001212358475</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.868180277142528e-09</v>
+        <v>0.002812543651089072</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.191842428255768e-07</v>
+        <v>0.0001668836921453476</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.9638632759752e-08</v>
+        <v>0.001134900376200676</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.409644596606086e-07</v>
+        <v>0.005199773702770472</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.795041839613987e-07</v>
+        <v>0.0007717488333582878</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.951032816004954e-08</v>
+        <v>0.01243423298001289</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.662696101969232e-08</v>
+        <v>0.01265543326735497</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.720356522127986e-06</v>
+        <v>0.006197653710842133</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.854473207975389e-07</v>
+        <v>0.02602008171379566</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.257611129152792e-07</v>
+        <v>0.01030822098255157</v>
       </c>
       <c r="BI10" t="n">
-        <v>4.002918672085798e-07</v>
+        <v>0.003046184312552214</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.639589726210033e-07</v>
+        <v>0.008126367814838886</v>
       </c>
       <c r="BK10" t="n">
-        <v>7.374912769364528e-08</v>
+        <v>0.0003769775212276727</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.916102914696239e-07</v>
+        <v>0.01489500422030687</v>
       </c>
       <c r="BM10" t="n">
-        <v>9.555194679933265e-08</v>
+        <v>0.01811284385621548</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.227130835308344e-07</v>
+        <v>0.0082247294485569</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.711672201869078e-08</v>
+        <v>0.007074336521327496</v>
       </c>
       <c r="BP10" t="n">
-        <v>6.858356869088311e-07</v>
+        <v>0.007809155154973269</v>
       </c>
       <c r="BQ10" t="n">
-        <v>5.151014548232524e-08</v>
+        <v>0.003034465480595827</v>
       </c>
       <c r="BR10" t="n">
-        <v>6.684443576432386e-08</v>
+        <v>0.0005956731038168073</v>
       </c>
       <c r="BS10" t="n">
-        <v>7.107671962103268e-08</v>
+        <v>0.001899154973216355</v>
       </c>
       <c r="BT10" t="n">
-        <v>4.950469545406122e-08</v>
+        <v>0.002507466590031981</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.143817852129359e-07</v>
+        <v>0.005200378596782684</v>
       </c>
       <c r="BV10" t="n">
-        <v>5.503636657522293e-09</v>
+        <v>0.02761601842939854</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.971404112235177e-07</v>
+        <v>0.004726207815110683</v>
       </c>
       <c r="BX10" t="n">
-        <v>7.848631184970145e-07</v>
+        <v>0.002360868267714977</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.986885760947189e-07</v>
+        <v>0.008674405515193939</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.19474472373804e-07</v>
+        <v>0.01115400157868862</v>
       </c>
       <c r="CA10" t="n">
-        <v>3.460308732883277e-07</v>
+        <v>0.003884459612891078</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.952044641484463e-07</v>
+        <v>0.002703153761103749</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.282991999891237e-07</v>
+        <v>0.004877977538853884</v>
       </c>
       <c r="CD10" t="n">
-        <v>5.245862055858197e-08</v>
+        <v>0.003673389554023743</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.770542183976431e-07</v>
+        <v>0.01405723206698895</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.761394372579161e-07</v>
+        <v>0.002934067044407129</v>
       </c>
       <c r="CG10" t="n">
-        <v>3.322991517507035e-07</v>
+        <v>0.002026990056037903</v>
       </c>
       <c r="CH10" t="n">
-        <v>3.584713397231098e-07</v>
+        <v>0.006804715376347303</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.100144769201506e-08</v>
+        <v>0.000723190198186785</v>
       </c>
       <c r="CJ10" t="n">
-        <v>7.694792003576367e-08</v>
+        <v>0.002658547135069966</v>
       </c>
       <c r="CK10" t="n">
-        <v>4.202774661621334e-08</v>
+        <v>0.0005638962611556053</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.500905142393094e-07</v>
+        <v>0.002529586665332317</v>
       </c>
       <c r="CM10" t="n">
-        <v>5.743511337641394e-07</v>
+        <v>0.01565380208194256</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.443583753120038e-07</v>
+        <v>0.01640262268483639</v>
       </c>
       <c r="CO10" t="n">
-        <v>7.563838266833045e-08</v>
+        <v>0.005817891098558903</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.110259177039552e-06</v>
+        <v>0.0198068805038929</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.107263528865587e-06</v>
+        <v>0.01150340866297483</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.150845150732493e-06</v>
+        <v>0.01365976780653</v>
       </c>
       <c r="CS10" t="n">
-        <v>4.344394426425424e-07</v>
+        <v>0.008384956046938896</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.886603394676058e-07</v>
+        <v>0.008919502608478069</v>
       </c>
       <c r="CU10" t="n">
-        <v>5.470474206958897e-07</v>
+        <v>0.001811550348065794</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.675370100429063e-07</v>
+        <v>0.00364044145680964</v>
       </c>
       <c r="CW10" t="n">
-        <v>6.179357114888262e-08</v>
+        <v>0.01220244728028774</v>
       </c>
       <c r="CX10" t="n">
-        <v>3.296196382507333e-07</v>
+        <v>0.00389726972207427</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.055485737173512e-07</v>
+        <v>0.005847577936947346</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.091852533998463e-07</v>
+        <v>0.007582567632198334</v>
       </c>
       <c r="DA10" t="n">
-        <v>7.941418189716387e-09</v>
+        <v>0.002215276239439845</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.100122943853421e-07</v>
+        <v>0.002065527252852917</v>
       </c>
       <c r="DC10" t="n">
-        <v>4.223520022605953e-08</v>
+        <v>0.0006322775734588504</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.405879430649293e-07</v>
+        <v>0.002164077712222934</v>
       </c>
       <c r="DE10" t="n">
-        <v>7.01488602317113e-07</v>
+        <v>0.001536148018203676</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.351698012465931e-07</v>
+        <v>0.008857906796038151</v>
       </c>
       <c r="DG10" t="n">
-        <v>6.418623144099911e-08</v>
+        <v>0.002988566178828478</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.899083426655125e-07</v>
+        <v>0.01245098188519478</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.797260378883948e-07</v>
+        <v>0.003331293817609549</v>
       </c>
       <c r="DJ10" t="n">
-        <v>4.454309703305626e-07</v>
+        <v>0.004724764730781317</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.600303557504958e-07</v>
+        <v>0.007828887552022934</v>
       </c>
       <c r="DL10" t="n">
-        <v>8.090100322988292e-07</v>
+        <v>0.001272600842639804</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.443711425963556e-07</v>
+        <v>5.527411121875048e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.035166287190805e-07</v>
+        <v>0.006433677393943071</v>
       </c>
       <c r="DO10" t="n">
-        <v>4.462685012640577e-07</v>
+        <v>0.002557871863245964</v>
       </c>
       <c r="DP10" t="n">
-        <v>4.131803876816775e-08</v>
+        <v>0.005930210463702679</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.495673925295705e-07</v>
+        <v>0.001976750558242202</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.560794089527917e-07</v>
+        <v>0.003197781275957823</v>
       </c>
       <c r="DS10" t="n">
-        <v>6.99182066909998e-07</v>
+        <v>0.002347595989704132</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.84873840680666e-07</v>
+        <v>0.0001563436817377806</v>
       </c>
       <c r="DU10" t="n">
-        <v>5.192979912749252e-08</v>
+        <v>0.001369094243273139</v>
       </c>
       <c r="DV10" t="n">
-        <v>5.429155081060344e-08</v>
+        <v>0.002125099301338196</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.227957907052769e-07</v>
+        <v>0.002770178020000458</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.423496343022634e-07</v>
+        <v>0.001745735644362867</v>
       </c>
       <c r="DY10" t="n">
-        <v>9.408587686721148e-08</v>
+        <v>0.01132396422326565</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.551036454358837e-07</v>
+        <v>0.001553096575662494</v>
       </c>
       <c r="EA10" t="n">
-        <v>4.367723818177183e-07</v>
+        <v>0.0074837994761765</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.561485755199101e-07</v>
+        <v>0.003822654252871871</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.499251518718665e-08</v>
+        <v>0.0006303875125013292</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.6675592462434e-07</v>
+        <v>0.002201694762334228</v>
       </c>
       <c r="EE10" t="n">
-        <v>9.220173069479642e-08</v>
+        <v>0.0004163183621130884</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.889036695956747e-07</v>
+        <v>0.005225755739957094</v>
       </c>
       <c r="EG10" t="n">
-        <v>9.471786199810595e-08</v>
+        <v>0.01480180025100708</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.781744316531331e-07</v>
+        <v>0.002698692958801985</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.722356609614508e-07</v>
+        <v>0.00464971037581563</v>
       </c>
       <c r="EJ10" t="n">
-        <v>5.290698368298763e-07</v>
+        <v>0.0004946445696987212</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.295036694022201e-07</v>
+        <v>0.002204279880970716</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.526888375266935e-08</v>
+        <v>0.0001195546647068113</v>
       </c>
       <c r="EM10" t="n">
-        <v>9.266511824534973e-08</v>
+        <v>0.002204024698585272</v>
       </c>
       <c r="EN10" t="n">
-        <v>9.035568382387282e-08</v>
+        <v>0.003369608661159873</v>
       </c>
       <c r="EO10" t="n">
-        <v>5.949293608864537e-07</v>
+        <v>0.003723952453583479</v>
       </c>
       <c r="EP10" t="n">
-        <v>6.815011488470191e-07</v>
+        <v>0.009068797342479229</v>
       </c>
       <c r="EQ10" t="n">
-        <v>4.498253360907256e-07</v>
+        <v>0.001127151073887944</v>
       </c>
       <c r="ER10" t="n">
-        <v>2.566270609349885e-07</v>
+        <v>0.005432647187262774</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.122905572970012e-07</v>
+        <v>0.01049964968115091</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.499672965925129e-07</v>
+        <v>0.001751971081830561</v>
       </c>
       <c r="EU10" t="n">
-        <v>4.912340756391131e-08</v>
+        <v>0.00592015078291297</v>
       </c>
       <c r="EV10" t="n">
-        <v>4.283175059072164e-08</v>
+        <v>0.007358684670180082</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.991029563441771e-08</v>
+        <v>0.001184292603284121</v>
       </c>
       <c r="EX10" t="n">
-        <v>8.72357119874323e-08</v>
+        <v>0.001625288394279778</v>
       </c>
       <c r="EY10" t="n">
-        <v>7.655078348989264e-08</v>
+        <v>0.01385525334626436</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.637608247368917e-07</v>
+        <v>0.002155109075829387</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.941752429956978e-07</v>
+        <v>0.003199227852746844</v>
       </c>
       <c r="FB10" t="n">
-        <v>3.696920316542673e-07</v>
+        <v>0.003712525591254234</v>
       </c>
       <c r="FC10" t="n">
-        <v>8.830436826201549e-09</v>
+        <v>0.002302326261997223</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.02748742847325e-07</v>
+        <v>0.002985445549711585</v>
       </c>
       <c r="FE10" t="n">
-        <v>7.660449341528874e-08</v>
+        <v>0.0002506235614418983</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.217149657785967e-09</v>
+        <v>0.003363306634128094</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.081733209204685e-07</v>
+        <v>0.00487183453515172</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.647118435561424e-07</v>
+        <v>0.003242241917178035</v>
       </c>
       <c r="FI10" t="n">
-        <v>7.189955795183778e-07</v>
+        <v>0.002017514314502478</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.678883023714661e-07</v>
+        <v>0.006293801590800285</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.485133165919251e-08</v>
+        <v>0.005287713371217251</v>
       </c>
       <c r="FL10" t="n">
-        <v>5.359927399695152e-07</v>
+        <v>0.003703400492668152</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.699012782159116e-07</v>
+        <v>0.002846413990482688</v>
       </c>
       <c r="FN10" t="n">
-        <v>6.038915500994335e-08</v>
+        <v>0.00480343634262681</v>
       </c>
       <c r="FO10" t="n">
-        <v>3.817199853983766e-07</v>
+        <v>0.002613947261124849</v>
       </c>
       <c r="FP10" t="n">
-        <v>4.738626557809766e-07</v>
+        <v>0.004035347141325474</v>
       </c>
       <c r="FQ10" t="n">
-        <v>2.489319967935444e-07</v>
+        <v>0.01099022757261992</v>
       </c>
       <c r="FR10" t="n">
-        <v>4.589091417983582e-07</v>
+        <v>0.001946411095559597</v>
       </c>
       <c r="FS10" t="n">
-        <v>5.272528937894094e-07</v>
+        <v>0.01131100486963987</v>
       </c>
       <c r="FT10" t="n">
-        <v>3.971548210301989e-07</v>
+        <v>0.00109948730096221</v>
       </c>
       <c r="FU10" t="n">
-        <v>4.795988957084774e-07</v>
+        <v>0.0004222014686092734</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.407918830409471e-07</v>
+        <v>0.003651238745078444</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.051981257660373e-08</v>
+        <v>0.001922036521136761</v>
       </c>
       <c r="FX10" t="n">
-        <v>3.31534835140701e-07</v>
+        <v>0.001898457761853933</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.038818737697511e-07</v>
+        <v>0.01239787880331278</v>
       </c>
       <c r="FZ10" t="n">
-        <v>8.712992212167592e-07</v>
+        <v>0.007801373489201069</v>
       </c>
       <c r="GA10" t="n">
-        <v>6.159531267257989e-07</v>
+        <v>0.002365272026509047</v>
       </c>
       <c r="GB10" t="n">
-        <v>7.186679908954829e-07</v>
+        <v>0.000291042379103601</v>
       </c>
       <c r="GC10" t="n">
-        <v>2.620529073737998e-07</v>
+        <v>0.008141135796904564</v>
       </c>
       <c r="GD10" t="n">
-        <v>3.728749220499594e-07</v>
+        <v>0.006523382849991322</v>
       </c>
       <c r="GE10" t="n">
-        <v>7.443109240057311e-09</v>
+        <v>0.01574083045125008</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.229440099199564e-07</v>
+        <v>0.005626721773296595</v>
       </c>
       <c r="GG10" t="n">
-        <v>3.538854400630953e-07</v>
+        <v>0.00245154881849885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.559477358474396e-07</v>
+        <v>0.001048332545906305</v>
       </c>
       <c r="B11" t="n">
-        <v>3.160230789944762e-06</v>
+        <v>0.04481512680649757</v>
       </c>
       <c r="C11" t="n">
-        <v>9.29258021642454e-08</v>
+        <v>0.003143827663734555</v>
       </c>
       <c r="D11" t="n">
-        <v>3.780492988880724e-06</v>
+        <v>0.0159689299762249</v>
       </c>
       <c r="E11" t="n">
-        <v>7.803960215824191e-07</v>
+        <v>0.004281772300601006</v>
       </c>
       <c r="F11" t="n">
-        <v>2.446041946768673e-07</v>
+        <v>0.03804579377174377</v>
       </c>
       <c r="G11" t="n">
-        <v>2.104355303345073e-07</v>
+        <v>0.00351585098542273</v>
       </c>
       <c r="H11" t="n">
-        <v>5.225663244345924e-07</v>
+        <v>0.02294359728693962</v>
       </c>
       <c r="I11" t="n">
-        <v>3.546961124811787e-07</v>
+        <v>0.00233503757044673</v>
       </c>
       <c r="J11" t="n">
-        <v>1.00817665327213e-07</v>
+        <v>0.008460747078061104</v>
       </c>
       <c r="K11" t="n">
-        <v>2.881197815440828e-06</v>
+        <v>0.04183859750628471</v>
       </c>
       <c r="L11" t="n">
-        <v>3.887599291374499e-07</v>
+        <v>0.001747194677591324</v>
       </c>
       <c r="M11" t="n">
-        <v>3.704618393385317e-06</v>
+        <v>0.01041529700160027</v>
       </c>
       <c r="N11" t="n">
-        <v>1.434669570699043e-06</v>
+        <v>0.005635736044496298</v>
       </c>
       <c r="O11" t="n">
-        <v>5.022236564400373e-07</v>
+        <v>0.03165052458643913</v>
       </c>
       <c r="P11" t="n">
-        <v>2.105194880641648e-07</v>
+        <v>0.002812402322888374</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.561367236670776e-07</v>
+        <v>0.01052585616707802</v>
       </c>
       <c r="R11" t="n">
-        <v>9.128102078648226e-07</v>
+        <v>0.008469263091683388</v>
       </c>
       <c r="S11" t="n">
-        <v>2.403437804332498e-07</v>
+        <v>0.001910663209855556</v>
       </c>
       <c r="T11" t="n">
-        <v>3.903863330378954e-07</v>
+        <v>0.0003879631403833628</v>
       </c>
       <c r="U11" t="n">
-        <v>3.4619492339516e-07</v>
+        <v>0.002380425808951259</v>
       </c>
       <c r="V11" t="n">
-        <v>2.414307118669967e-07</v>
+        <v>0.005154379177838564</v>
       </c>
       <c r="W11" t="n">
-        <v>2.493565943950671e-06</v>
+        <v>0.01900402642786503</v>
       </c>
       <c r="X11" t="n">
-        <v>2.568994261764601e-07</v>
+        <v>0.007819836959242821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.315676255193466e-07</v>
+        <v>0.00274684140458703</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.055213255720446e-07</v>
+        <v>0.009562601335346699</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.472319734664779e-08</v>
+        <v>0.005473589990288019</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.395107223193918e-07</v>
+        <v>0.000884530832991004</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.823892479384085e-07</v>
+        <v>0.002181353745982051</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.65036937005425e-07</v>
+        <v>0.0008888918673619628</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.241214590663731e-06</v>
+        <v>0.0003940633032470942</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.522846844181913e-07</v>
+        <v>0.0005281706107780337</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.20168744849525e-08</v>
+        <v>0.003723956644535065</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.473729061122867e-07</v>
+        <v>0.0001982426038011909</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.005159581765838e-08</v>
+        <v>0.0004292703233659267</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.277226573392909e-07</v>
+        <v>0.0004905634559690952</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.384765237678948e-07</v>
+        <v>0.006056243553757668</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.436894419588498e-07</v>
+        <v>0.004822444170713425</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.052155991805193e-07</v>
+        <v>0.0003539748722687364</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.689839556704101e-07</v>
+        <v>0.004452074877917767</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.678749286948005e-07</v>
+        <v>0.0001500567304901779</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.420555287902971e-07</v>
+        <v>0.009451223537325859</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.133754565785239e-07</v>
+        <v>0.002164337318390608</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.168943294440396e-07</v>
+        <v>0.001075232867151499</v>
       </c>
       <c r="AS11" t="n">
-        <v>4.174902983322681e-07</v>
+        <v>0.004305559210479259</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.323720653090277e-06</v>
+        <v>0.001211093738675117</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.955844254553085e-06</v>
+        <v>0.02613512054085732</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.269077180651948e-07</v>
+        <v>0.0003373966319486499</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.093229002435692e-06</v>
+        <v>0.007921789772808552</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.795058299895572e-08</v>
+        <v>0.002271338598802686</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.232498878626757e-08</v>
+        <v>0.0269299577921629</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.46396301817731e-07</v>
+        <v>0.009851155802607536</v>
       </c>
       <c r="BA11" t="n">
-        <v>5.021066726840218e-07</v>
+        <v>0.001695339800789952</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.457473667367594e-07</v>
+        <v>0.006992679089307785</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.028335816499748e-07</v>
+        <v>0.000223216600716114</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.84789358224225e-07</v>
+        <v>0.01659950613975525</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.614803910702904e-08</v>
+        <v>0.01114508509635925</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.727727294564829e-06</v>
+        <v>0.001226764637976885</v>
       </c>
       <c r="BG11" t="n">
-        <v>8.610512054474384e-07</v>
+        <v>0.002485311590135098</v>
       </c>
       <c r="BH11" t="n">
-        <v>7.643345725227846e-07</v>
+        <v>0.01191037241369486</v>
       </c>
       <c r="BI11" t="n">
-        <v>8.180697932402836e-07</v>
+        <v>0.005922628566622734</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4.852843815683627e-08</v>
+        <v>0.0005413175676949322</v>
       </c>
       <c r="BK11" t="n">
-        <v>8.630375987195293e-07</v>
+        <v>0.004931875038892031</v>
       </c>
       <c r="BL11" t="n">
-        <v>2.187672123454831e-07</v>
+        <v>0.00380455213598907</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.085967369363061e-06</v>
+        <v>0.01007190346717834</v>
       </c>
       <c r="BN11" t="n">
-        <v>2.597122659153683e-07</v>
+        <v>0.003797714598476887</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.543075083849544e-08</v>
+        <v>0.005482257343828678</v>
       </c>
       <c r="BP11" t="n">
-        <v>6.376333203661488e-07</v>
+        <v>0.001453752629458904</v>
       </c>
       <c r="BQ11" t="n">
-        <v>4.443068064574618e-07</v>
+        <v>0.00124471471644938</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.328413645751425e-07</v>
+        <v>0.002982734004035592</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.958113671207684e-07</v>
+        <v>0.006639949977397919</v>
       </c>
       <c r="BT11" t="n">
-        <v>9.918376520090533e-08</v>
+        <v>0.001868288149125874</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.274316105082107e-06</v>
+        <v>0.0012558086309582</v>
       </c>
       <c r="BV11" t="n">
-        <v>5.372568239181419e-07</v>
+        <v>0.0146982129663229</v>
       </c>
       <c r="BW11" t="n">
-        <v>4.158775084306399e-07</v>
+        <v>0.002849624026566744</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.472251938139379e-06</v>
+        <v>0.004371830727905035</v>
       </c>
       <c r="BY11" t="n">
-        <v>9.976166666092467e-07</v>
+        <v>0.0005342221120372415</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3.220734470232856e-07</v>
+        <v>0.008992239832878113</v>
       </c>
       <c r="CA11" t="n">
-        <v>5.999267500556016e-07</v>
+        <v>0.001654960215091705</v>
       </c>
       <c r="CB11" t="n">
-        <v>4.037060250539071e-07</v>
+        <v>0.0004560757661238313</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.719896201597294e-07</v>
+        <v>0.003587273648008704</v>
       </c>
       <c r="CD11" t="n">
-        <v>5.472293764796632e-07</v>
+        <v>0.0004679720150306821</v>
       </c>
       <c r="CE11" t="n">
-        <v>7.917083166830707e-07</v>
+        <v>0.006237168330699205</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.227407722126372e-07</v>
+        <v>0.004086185246706009</v>
       </c>
       <c r="CG11" t="n">
-        <v>7.204710072983289e-07</v>
+        <v>0.001104990602470934</v>
       </c>
       <c r="CH11" t="n">
-        <v>4.10958506336101e-07</v>
+        <v>0.0001100310691981576</v>
       </c>
       <c r="CI11" t="n">
-        <v>2.136810053343652e-07</v>
+        <v>0.005187217146158218</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.43824205878218e-08</v>
+        <v>0.004004429094493389</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.378710834387675e-08</v>
+        <v>0.006287298630923033</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.023953544176948e-07</v>
+        <v>0.00411814171820879</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.426932243475676e-07</v>
+        <v>0.005929841194301844</v>
       </c>
       <c r="CN11" t="n">
-        <v>7.538339446000464e-07</v>
+        <v>0.005313501227647066</v>
       </c>
       <c r="CO11" t="n">
-        <v>7.726345074843266e-08</v>
+        <v>0.001499670092016459</v>
       </c>
       <c r="CP11" t="n">
-        <v>6.868851301078394e-07</v>
+        <v>0.01056316308677197</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.09230245470826e-06</v>
+        <v>0.003401740919798613</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.402492557645019e-06</v>
+        <v>2.464302815496922e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>5.928042057234961e-08</v>
+        <v>0.01027022954076529</v>
       </c>
       <c r="CT11" t="n">
-        <v>4.312876455969672e-07</v>
+        <v>0.003512066323310137</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.001245735210432e-07</v>
+        <v>0.0042470907792449</v>
       </c>
       <c r="CV11" t="n">
-        <v>5.493748176377267e-07</v>
+        <v>0.0002497674431651831</v>
       </c>
       <c r="CW11" t="n">
-        <v>9.084971566153399e-07</v>
+        <v>0.005684823729097843</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.667758801701893e-08</v>
+        <v>0.003683704184368253</v>
       </c>
       <c r="CY11" t="n">
-        <v>6.973821200517705e-07</v>
+        <v>0.002561160828918219</v>
       </c>
       <c r="CZ11" t="n">
-        <v>3.565176598385733e-07</v>
+        <v>0.001487545901909471</v>
       </c>
       <c r="DA11" t="n">
-        <v>1.243979284026864e-07</v>
+        <v>0.004176774527877569</v>
       </c>
       <c r="DB11" t="n">
-        <v>9.414829804654801e-09</v>
+        <v>0.003371804021298885</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.136064895490563e-07</v>
+        <v>0.008494308218359947</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.132768332468004e-07</v>
+        <v>0.003434366546571255</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.19103219731187e-06</v>
+        <v>0.006349892355501652</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.088925955627928e-06</v>
+        <v>0.0008709620451554656</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.804457383514091e-07</v>
+        <v>0.001946095027960837</v>
       </c>
       <c r="DH11" t="n">
-        <v>7.256085154949687e-07</v>
+        <v>0.01972678303718567</v>
       </c>
       <c r="DI11" t="n">
-        <v>4.633351977645361e-07</v>
+        <v>0.01142695359885693</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2.885616368075716e-07</v>
+        <v>0.01392419170588255</v>
       </c>
       <c r="DK11" t="n">
-        <v>4.901903594145551e-07</v>
+        <v>0.006346730515360832</v>
       </c>
       <c r="DL11" t="n">
-        <v>8.322047051478876e-07</v>
+        <v>0.005620374344289303</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.232587578670064e-07</v>
+        <v>0.01331969164311886</v>
       </c>
       <c r="DN11" t="n">
-        <v>3.729567481514096e-07</v>
+        <v>0.001572633860632777</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.034027263813186e-08</v>
+        <v>0.0007454785518348217</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.86655961190263e-08</v>
+        <v>0.004348518792539835</v>
       </c>
       <c r="DQ11" t="n">
-        <v>2.00151518470193e-07</v>
+        <v>0.002251528901979327</v>
       </c>
       <c r="DR11" t="n">
-        <v>5.066975177214772e-07</v>
+        <v>0.008293768391013145</v>
       </c>
       <c r="DS11" t="n">
-        <v>1.264490521180051e-07</v>
+        <v>0.00143956346437335</v>
       </c>
       <c r="DT11" t="n">
-        <v>1.60878784072338e-07</v>
+        <v>0.002700106240808964</v>
       </c>
       <c r="DU11" t="n">
-        <v>7.70384787074363e-08</v>
+        <v>0.001153810415416956</v>
       </c>
       <c r="DV11" t="n">
-        <v>4.909545623377198e-07</v>
+        <v>0.001064182142727077</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.476851423376502e-07</v>
+        <v>0.0005714003345929086</v>
       </c>
       <c r="DX11" t="n">
-        <v>6.030953159097407e-07</v>
+        <v>8.073581557255238e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>4.355395617494651e-07</v>
+        <v>0.0005024243146181107</v>
       </c>
       <c r="DZ11" t="n">
-        <v>7.17016064299969e-07</v>
+        <v>0.004624415189027786</v>
       </c>
       <c r="EA11" t="n">
-        <v>3.581769192351203e-07</v>
+        <v>0.006717170588672161</v>
       </c>
       <c r="EB11" t="n">
-        <v>1.980128558898286e-07</v>
+        <v>0.00603549275547266</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.458069078807966e-07</v>
+        <v>0.0008231387473642826</v>
       </c>
       <c r="ED11" t="n">
-        <v>2.417648943264794e-07</v>
+        <v>0.002585227601230145</v>
       </c>
       <c r="EE11" t="n">
-        <v>4.062845277985616e-07</v>
+        <v>0.00812160037457943</v>
       </c>
       <c r="EF11" t="n">
-        <v>8.7696560058248e-07</v>
+        <v>0.0003724289126694202</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.089392981157289e-06</v>
+        <v>0.007041281554847956</v>
       </c>
       <c r="EH11" t="n">
-        <v>2.009196009566949e-07</v>
+        <v>0.002979464828968048</v>
       </c>
       <c r="EI11" t="n">
-        <v>7.901350045358413e-07</v>
+        <v>0.003907297737896442</v>
       </c>
       <c r="EJ11" t="n">
-        <v>4.046490857945173e-07</v>
+        <v>0.0006395092350430787</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.515779644023496e-07</v>
+        <v>0.0007744843605905771</v>
       </c>
       <c r="EL11" t="n">
-        <v>9.144619639300799e-08</v>
+        <v>0.002994795562699437</v>
       </c>
       <c r="EM11" t="n">
-        <v>7.481835240241708e-08</v>
+        <v>0.004520037211477757</v>
       </c>
       <c r="EN11" t="n">
-        <v>2.638996932091686e-07</v>
+        <v>0.003641416784375906</v>
       </c>
       <c r="EO11" t="n">
-        <v>6.003041903568374e-07</v>
+        <v>0.0001475784229114652</v>
       </c>
       <c r="EP11" t="n">
-        <v>4.745985222598392e-07</v>
+        <v>0.003674102248623967</v>
       </c>
       <c r="EQ11" t="n">
-        <v>3.378092969796853e-07</v>
+        <v>0.002622692380100489</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.497809876127576e-08</v>
+        <v>0.002919132355600595</v>
       </c>
       <c r="ES11" t="n">
-        <v>5.353627443582809e-07</v>
+        <v>0.0002887957962229848</v>
       </c>
       <c r="ET11" t="n">
-        <v>1.164428464761613e-08</v>
+        <v>0.00448063388466835</v>
       </c>
       <c r="EU11" t="n">
-        <v>2.180879192792418e-07</v>
+        <v>0.007634466513991356</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.110305021256863e-07</v>
+        <v>0.01779407449066639</v>
       </c>
       <c r="EW11" t="n">
-        <v>3.042910066142213e-07</v>
+        <v>0.001369824865832925</v>
       </c>
       <c r="EX11" t="n">
-        <v>4.305240395297005e-07</v>
+        <v>0.0002040434628725052</v>
       </c>
       <c r="EY11" t="n">
-        <v>7.418643690471072e-07</v>
+        <v>0.005230258218944073</v>
       </c>
       <c r="EZ11" t="n">
-        <v>7.201872875839399e-08</v>
+        <v>0.00253049866296351</v>
       </c>
       <c r="FA11" t="n">
-        <v>6.458680559262575e-07</v>
+        <v>0.0005891016917303205</v>
       </c>
       <c r="FB11" t="n">
-        <v>5.321862772689201e-07</v>
+        <v>0.000380105571821332</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.901184987218585e-07</v>
+        <v>0.003911517094820738</v>
       </c>
       <c r="FD11" t="n">
-        <v>2.03904448881076e-09</v>
+        <v>0.006147363223135471</v>
       </c>
       <c r="FE11" t="n">
-        <v>2.666355669589393e-08</v>
+        <v>0.008057919330894947</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.064488301949496e-07</v>
+        <v>0.005134907551109791</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.378972740440076e-07</v>
+        <v>0.002539224689826369</v>
       </c>
       <c r="FH11" t="n">
-        <v>2.12296043855531e-07</v>
+        <v>0.001806186977773905</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.345441518196822e-07</v>
+        <v>0.000398511765524745</v>
       </c>
       <c r="FJ11" t="n">
-        <v>9.250284733752778e-07</v>
+        <v>0.01063141599297523</v>
       </c>
       <c r="FK11" t="n">
-        <v>5.253108383840299e-07</v>
+        <v>0.0009740903042256832</v>
       </c>
       <c r="FL11" t="n">
-        <v>5.797606377200282e-07</v>
+        <v>0.003579207230359316</v>
       </c>
       <c r="FM11" t="n">
-        <v>2.636502074437885e-07</v>
+        <v>0.005456015467643738</v>
       </c>
       <c r="FN11" t="n">
-        <v>8.580660448842536e-08</v>
+        <v>0.001216419273987412</v>
       </c>
       <c r="FO11" t="n">
-        <v>6.123623279563617e-07</v>
+        <v>0.0009207096882164478</v>
       </c>
       <c r="FP11" t="n">
-        <v>4.093610641575651e-07</v>
+        <v>0.004366256762295961</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.741910520853708e-08</v>
+        <v>0.007218779064714909</v>
       </c>
       <c r="FR11" t="n">
-        <v>3.260600465182506e-07</v>
+        <v>0.004796588327735662</v>
       </c>
       <c r="FS11" t="n">
-        <v>7.220964448606537e-07</v>
+        <v>0.003698911517858505</v>
       </c>
       <c r="FT11" t="n">
-        <v>2.776123437797651e-07</v>
+        <v>0.01987564936280251</v>
       </c>
       <c r="FU11" t="n">
-        <v>4.317535058362409e-07</v>
+        <v>0.01076522283256054</v>
       </c>
       <c r="FV11" t="n">
-        <v>1.291409432724322e-07</v>
+        <v>0.008566188625991344</v>
       </c>
       <c r="FW11" t="n">
-        <v>2.226149860007354e-07</v>
+        <v>0.001785553060472012</v>
       </c>
       <c r="FX11" t="n">
-        <v>5.413824055722216e-07</v>
+        <v>0.001946259755641222</v>
       </c>
       <c r="FY11" t="n">
-        <v>5.072895419289125e-07</v>
+        <v>0.006750787608325481</v>
       </c>
       <c r="FZ11" t="n">
-        <v>1.539229401714692e-07</v>
+        <v>0.00206860015168786</v>
       </c>
       <c r="GA11" t="n">
-        <v>4.789062018062396e-07</v>
+        <v>0.000604020431637764</v>
       </c>
       <c r="GB11" t="n">
-        <v>8.480170095026551e-07</v>
+        <v>0.00278912577778101</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.048402282322058e-06</v>
+        <v>0.003443355904892087</v>
       </c>
       <c r="GD11" t="n">
-        <v>9.498618425141103e-08</v>
+        <v>0.006556133739650249</v>
       </c>
       <c r="GE11" t="n">
-        <v>2.241450687279212e-07</v>
+        <v>0.01448271982371807</v>
       </c>
       <c r="GF11" t="n">
-        <v>4.186355511137663e-07</v>
+        <v>0.003781444625928998</v>
       </c>
       <c r="GG11" t="n">
-        <v>3.16337747108264e-07</v>
+        <v>0.001231531496159732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.112235009121832e-08</v>
+        <v>0.0001364587515126914</v>
       </c>
       <c r="B12" t="n">
-        <v>6.744111402667841e-08</v>
+        <v>0.001865754253230989</v>
       </c>
       <c r="C12" t="n">
-        <v>4.992554636373825e-08</v>
+        <v>0.000145441445056349</v>
       </c>
       <c r="D12" t="n">
-        <v>9.967241965114226e-08</v>
+        <v>0.001105375355109572</v>
       </c>
       <c r="E12" t="n">
-        <v>5.084041276859352e-08</v>
+        <v>0.0001262627338292077</v>
       </c>
       <c r="F12" t="n">
-        <v>3.944467152905418e-08</v>
+        <v>0.0001354587002424523</v>
       </c>
       <c r="G12" t="n">
-        <v>9.218268814947805e-09</v>
+        <v>0.0001974181941477582</v>
       </c>
       <c r="H12" t="n">
-        <v>8.644972382398919e-08</v>
+        <v>0.0001927291159518063</v>
       </c>
       <c r="I12" t="n">
-        <v>1.958065887208704e-08</v>
+        <v>3.273557740612887e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.377507796718191e-08</v>
+        <v>0.0002694175345823169</v>
       </c>
       <c r="K12" t="n">
-        <v>5.017212600932908e-08</v>
+        <v>0.001338033471256495</v>
       </c>
       <c r="L12" t="n">
-        <v>6.399351804020625e-08</v>
+        <v>5.76075108256191e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>1.075561044672213e-07</v>
+        <v>0.001087121665477753</v>
       </c>
       <c r="N12" t="n">
-        <v>7.702335125259197e-08</v>
+        <v>0.000412977155065164</v>
       </c>
       <c r="O12" t="n">
-        <v>5.748247211556645e-09</v>
+        <v>0.0004534655308816582</v>
       </c>
       <c r="P12" t="n">
-        <v>1.43744092184761e-08</v>
+        <v>6.327971641439945e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.513455895808875e-08</v>
+        <v>0.0001412962446920574</v>
       </c>
       <c r="R12" t="n">
-        <v>3.528223757598425e-08</v>
+        <v>0.0001017556423903443</v>
       </c>
       <c r="S12" t="n">
-        <v>4.048253954280767e-10</v>
+        <v>3.803497384069487e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>3.758491295968724e-09</v>
+        <v>0.0003105405485257506</v>
       </c>
       <c r="U12" t="n">
-        <v>3.5464378100869e-09</v>
+        <v>7.118660141713917e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>3.210549692767017e-08</v>
+        <v>0.0001859660260379314</v>
       </c>
       <c r="W12" t="n">
-        <v>5.297640015555771e-08</v>
+        <v>2.613922333694063e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>1.057919529756646e-08</v>
+        <v>0.0001628112950129434</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.567507178559026e-09</v>
+        <v>0.0001755206612870097</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.659420061945639e-08</v>
+        <v>0.000109777320176363</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.511961553850142e-09</v>
+        <v>0.0001513436582172289</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.800292264737436e-08</v>
+        <v>0.0001513068855274469</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.498446391058678e-10</v>
+        <v>0.000373130984371528</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.547682230793271e-09</v>
+        <v>4.846317824558355e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.215483701524136e-08</v>
+        <v>6.99791416991502e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.736204069402447e-09</v>
+        <v>1.006502770906081e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.365161761412992e-08</v>
+        <v>2.214282358181663e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.149560055097481e-09</v>
+        <v>8.616322884336114e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.214929490345185e-08</v>
+        <v>2.526516618672758e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.286471704835094e-09</v>
+        <v>5.044630597694777e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.032173978567698e-08</v>
+        <v>0.0001042755829985254</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.116216452601293e-09</v>
+        <v>0.0001707993651507422</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.938196043890457e-09</v>
+        <v>4.705621176981367e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.202809181374505e-09</v>
+        <v>5.589162174146622e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.894482792863528e-08</v>
+        <v>0.0002052594063570723</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.690658800792335e-08</v>
+        <v>0.000205033618840389</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.433296035306512e-09</v>
+        <v>8.431613969150931e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.370957622043761e-09</v>
+        <v>0.0001182312480523251</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.411220140745684e-09</v>
+        <v>4.352078394731507e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.598549452339284e-08</v>
+        <v>0.0001675998792052269</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.61099176618518e-08</v>
+        <v>0.001297095906920731</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.020339616772617e-08</v>
+        <v>1.21157991088694e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.5932872798885e-08</v>
+        <v>0.0002306978567503393</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.501021529293212e-08</v>
+        <v>2.82371329376474e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.591804377198969e-08</v>
+        <v>2.678508462850004e-05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5.674460901161638e-09</v>
+        <v>5.156314728083089e-06</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.912330891533202e-08</v>
+        <v>4.87168290419504e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.262588835350471e-09</v>
+        <v>1.647510725888424e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.501316735490036e-09</v>
+        <v>1.820828765630722e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.915544878272613e-08</v>
+        <v>0.00038484952528961</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.58815751660768e-08</v>
+        <v>0.0003110698889940977</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.696160971207064e-08</v>
+        <v>0.0002168818318750709</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.886821543450878e-08</v>
+        <v>0.0004653518262784928</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.387098258476271e-08</v>
+        <v>9.069368388736621e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>3.264226888788357e-09</v>
+        <v>0.0001712135999696329</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4.314419044249007e-09</v>
+        <v>0.0001733900426188484</v>
       </c>
       <c r="BK12" t="n">
-        <v>9.180381788098657e-09</v>
+        <v>9.895703260554001e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>4.595896552217482e-09</v>
+        <v>0.0002356657350901514</v>
       </c>
       <c r="BM12" t="n">
-        <v>3.503532397530762e-08</v>
+        <v>0.0003332699707243592</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.52361980809701e-08</v>
+        <v>0.0001994332706090063</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.807157351014666e-08</v>
+        <v>5.561247235164046e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>3.039294682594118e-08</v>
+        <v>0.0001450743147870526</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.585008124749265e-09</v>
+        <v>0.0001300768344663084</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.491166656819587e-08</v>
+        <v>9.971528925234452e-06</v>
       </c>
       <c r="BS12" t="n">
-        <v>2.551469791001182e-08</v>
+        <v>2.074765507131815e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.063729904160482e-08</v>
+        <v>1.957564381882548e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>4.081419291424027e-08</v>
+        <v>0.0001360020542051643</v>
       </c>
       <c r="BV12" t="n">
-        <v>6.838265509401253e-09</v>
+        <v>0.0006630224524997175</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.579369524051799e-09</v>
+        <v>0.0001370534737361595</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.287612563937728e-08</v>
+        <v>0.0001978792570298538</v>
       </c>
       <c r="BY12" t="n">
-        <v>9.130342704111172e-09</v>
+        <v>9.112306725000963e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.127154085153961e-08</v>
+        <v>0.0002040084073087201</v>
       </c>
       <c r="CA12" t="n">
-        <v>8.90625440064241e-09</v>
+        <v>8.608377538621426e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.997169090690477e-08</v>
+        <v>5.800973303848878e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.144472072667213e-08</v>
+        <v>0.0001422784698661417</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.374801783526891e-08</v>
+        <v>8.961389539763331e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>7.744509034068869e-09</v>
+        <v>0.0003279167867731303</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.660831827621223e-08</v>
+        <v>0.0001029793347697705</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.916957970138355e-08</v>
+        <v>9.561458136886358e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.963064377719093e-08</v>
+        <v>9.964517084881663e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.016324091551724e-08</v>
+        <v>3.039193506992888e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.498442341902773e-09</v>
+        <v>5.170339500182308e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.153169020857604e-08</v>
+        <v>2.633339317981154e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>9.526070599008563e-09</v>
+        <v>7.062982331262901e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>8.265027551246362e-10</v>
+        <v>0.0003344447468407452</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.062916155092353e-08</v>
+        <v>0.0002254843420814723</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.0917482917705e-08</v>
+        <v>9.755069913808256e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.738106002515451e-08</v>
+        <v>0.0003006513288710266</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5.289630067295548e-09</v>
+        <v>0.0001597754890099168</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.82325104908432e-08</v>
+        <v>0.0002574499812908471</v>
       </c>
       <c r="CS12" t="n">
-        <v>8.908251913908316e-09</v>
+        <v>0.0002219556190539151</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.394006687860383e-08</v>
+        <v>0.0003579966723918915</v>
       </c>
       <c r="CU12" t="n">
-        <v>2.650612618282366e-09</v>
+        <v>1.614356369827874e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.549933692501781e-08</v>
+        <v>8.622433961136267e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.526920812011667e-08</v>
+        <v>0.0002588570641819388</v>
       </c>
       <c r="CX12" t="n">
-        <v>9.873467377019551e-09</v>
+        <v>0.0001438066392438486</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.453360454206631e-08</v>
+        <v>0.0001798033335944638</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.459764220612669e-08</v>
+        <v>0.0001199579928652383</v>
       </c>
       <c r="DA12" t="n">
-        <v>7.490789322162072e-09</v>
+        <v>5.112291546538472e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.472678506393322e-09</v>
+        <v>5.409253208199516e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.193360337798822e-08</v>
+        <v>5.486935697263107e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>1.236068936094625e-08</v>
+        <v>3.569090767996386e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>5.397109248406196e-08</v>
+        <v>7.34189961804077e-05</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.116216345551038e-08</v>
+        <v>0.0003515511925797909</v>
       </c>
       <c r="DG12" t="n">
-        <v>9.259798261496144e-09</v>
+        <v>1.106486797652906e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>4.057070235319316e-10</v>
+        <v>0.0004093438619747758</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.26763533003782e-09</v>
+        <v>2.429160485917237e-05</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2.248183861297548e-08</v>
+        <v>0.0001654606749070808</v>
       </c>
       <c r="DK12" t="n">
-        <v>2.083902117533398e-08</v>
+        <v>0.0002451551845297217</v>
       </c>
       <c r="DL12" t="n">
-        <v>5.108776690576633e-08</v>
+        <v>3.799901242018677e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>7.540173818654239e-09</v>
+        <v>3.404514245630708e-06</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.890197331988475e-09</v>
+        <v>0.0001616289519006386</v>
       </c>
       <c r="DO12" t="n">
-        <v>7.545962077415425e-09</v>
+        <v>0.0001237193500855938</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.863624226634442e-09</v>
+        <v>0.0001462964719394222</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2.383470842914903e-08</v>
+        <v>2.411390596535057e-06</v>
       </c>
       <c r="DR12" t="n">
-        <v>5.861947371954557e-09</v>
+        <v>0.0002152089582523331</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.559085388043059e-08</v>
+        <v>0.0001718813582556322</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.315527953238416e-08</v>
+        <v>1.776240242179483e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>9.246427623565978e-09</v>
+        <v>5.520828563021496e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.808792760016331e-08</v>
+        <v>0.0001073733292287216</v>
       </c>
       <c r="DW12" t="n">
-        <v>3.162134554202112e-09</v>
+        <v>2.253496859339066e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.830107786484405e-09</v>
+        <v>8.277693996205926e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>9.260677558131647e-09</v>
+        <v>0.000165708435815759</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.833934248907099e-08</v>
+        <v>7.073904271237552e-06</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.149616757345484e-08</v>
+        <v>0.0001763877808116376</v>
       </c>
       <c r="EB12" t="n">
-        <v>6.806331054320935e-09</v>
+        <v>4.16386392316781e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.36391014038395e-08</v>
+        <v>7.509474380640313e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>7.074341112911497e-09</v>
+        <v>3.027373350050766e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.726709442095853e-08</v>
+        <v>4.502577576204203e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>2.781687769015662e-08</v>
+        <v>3.119360189884901e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>5.463783647741138e-09</v>
+        <v>0.0001636224042158574</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.218014489268171e-08</v>
+        <v>8.351550786755979e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.454849301614104e-08</v>
+        <v>0.0001519388024462387</v>
       </c>
       <c r="EJ12" t="n">
-        <v>7.926262313162624e-09</v>
+        <v>8.830527804093435e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.244777703135469e-08</v>
+        <v>8.023757982300594e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>3.793976688371004e-09</v>
+        <v>5.330785643309355e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>2.372720508958537e-08</v>
+        <v>2.252648664580192e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>4.384435037252388e-09</v>
+        <v>5.332201908458956e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>5.101905120596939e-09</v>
+        <v>9.243839303962886e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>1.034045293835106e-08</v>
+        <v>0.0002254395512863994</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.468342780697185e-09</v>
+        <v>8.766756945988163e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>2.557605460751233e-09</v>
+        <v>0.0001801307807909325</v>
       </c>
       <c r="ES12" t="n">
-        <v>7.454075134916138e-10</v>
+        <v>7.143837137846276e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>2.217443118013307e-09</v>
+        <v>0.0001969804725376889</v>
       </c>
       <c r="EU12" t="n">
-        <v>3.577422358347349e-09</v>
+        <v>0.000166013662237674</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.350191070059736e-10</v>
+        <v>7.781656313454732e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>3.822030691935652e-09</v>
+        <v>1.043771590047982e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.305930830142188e-08</v>
+        <v>4.020534106530249e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>9.860483984880375e-09</v>
+        <v>0.000279072904959321</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.087144596567668e-08</v>
+        <v>8.987037290353328e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.150282180617523e-08</v>
+        <v>0.0001592920598341152</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.637190116809961e-08</v>
+        <v>8.268970850622281e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>7.435458027060804e-09</v>
+        <v>7.6537617132999e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>6.466112090208753e-10</v>
+        <v>7.90790727478452e-05</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.894654033662846e-08</v>
+        <v>3.146641029161401e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>6.857483914046725e-09</v>
+        <v>6.881152512505651e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.747075455999948e-08</v>
+        <v>1.683402297203429e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.164598633669357e-08</v>
+        <v>5.925063305767253e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>3.810474158427724e-09</v>
+        <v>9.151762787951156e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>7.771292498404136e-10</v>
+        <v>0.0001619909889996052</v>
       </c>
       <c r="FK12" t="n">
-        <v>3.346592691855221e-08</v>
+        <v>0.0001260850403923541</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.885388721869276e-08</v>
+        <v>6.977248631301336e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>8.561746867030706e-10</v>
+        <v>6.818223482696339e-06</v>
       </c>
       <c r="FN12" t="n">
-        <v>3.562855255268005e-08</v>
+        <v>1.597652226337232e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>2.335489490690179e-08</v>
+        <v>3.917382855433971e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.223855417009645e-08</v>
+        <v>7.48959428165108e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>6.371452698772373e-09</v>
+        <v>4.06361541536171e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.674467853263195e-08</v>
+        <v>0.0001601609837962314</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.14048823718349e-08</v>
+        <v>0.0001028432307066396</v>
       </c>
       <c r="FT12" t="n">
-        <v>6.141311814644723e-08</v>
+        <v>0.0001245719031430781</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.132153736373766e-08</v>
+        <v>2.431628854537848e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.694242968142134e-08</v>
+        <v>8.031840843614191e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.005068904826658e-08</v>
+        <v>3.021060911123641e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>8.978175536356048e-09</v>
+        <v>3.973606726503931e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.351608158728368e-08</v>
+        <v>0.0002368112473050132</v>
       </c>
       <c r="FZ12" t="n">
-        <v>4.975532874595956e-08</v>
+        <v>8.119820267893374e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>9.150289415060797e-10</v>
+        <v>1.295917354582343e-05</v>
       </c>
       <c r="GB12" t="n">
-        <v>8.296240139316069e-09</v>
+        <v>3.633671076386236e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.251888986393169e-08</v>
+        <v>2.90831576421624e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>1.579372010951374e-08</v>
+        <v>0.0002539246925152838</v>
       </c>
       <c r="GE12" t="n">
-        <v>6.014371223272974e-10</v>
+        <v>0.0004399201134219766</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.342818739009545e-08</v>
+        <v>7.264243322424591e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.375355118682364e-08</v>
+        <v>4.369523958303034e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001703591551631689</v>
+        <v>0.00166936544701457</v>
       </c>
       <c r="B13" t="n">
-        <v>0.009076130576431751</v>
+        <v>0.003448622999712825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001965835690498352</v>
+        <v>0.0002234987914562225</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004596112761646509</v>
+        <v>0.002777663758024573</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001890372834168375</v>
+        <v>0.004517583642154932</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0004395684227347374</v>
+        <v>0.008340464904904366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001227842294611037</v>
+        <v>0.0006180091295391321</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001711375080049038</v>
+        <v>0.005227227229624987</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003561310586519539</v>
+        <v>0.0005305028171278536</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003540793433785439</v>
+        <v>0.0001937196357175708</v>
       </c>
       <c r="K13" t="n">
-        <v>0.010924207046628</v>
+        <v>0.00378958904184401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009343698620796204</v>
+        <v>0.0009165004594251513</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00450369855388999</v>
+        <v>0.0009659926290623844</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001233606715686619</v>
+        <v>0.002227198099717498</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002014670986682177</v>
+        <v>0.006999117787927389</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001291146967560053</v>
+        <v>0.0007546728011220694</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0008638094877824187</v>
+        <v>0.004463383927941322</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0001066553522832692</v>
+        <v>0.000207785444217734</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001249406021088362</v>
+        <v>0.000596697733271867</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00140272406861186</v>
+        <v>0.0001468859554734081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001297610579058528</v>
+        <v>0.0001178956881631166</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001410025579389185</v>
+        <v>0.0005748908151872456</v>
       </c>
       <c r="W13" t="n">
-        <v>0.002372241811826825</v>
+        <v>0.003251881804317236</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0008373915334232152</v>
+        <v>0.0009418085683137178</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002693814458325505</v>
+        <v>0.000780382426455617</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0008370176656171679</v>
+        <v>0.0006763947894796729</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001586584839969873</v>
+        <v>0.0001151814358308911</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0008819312206469476</v>
+        <v>9.621400386095047e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002305749570950866</v>
+        <v>0.0004817339940927923</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0006297045620158315</v>
+        <v>2.64262780547142e-08</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001333382097072899</v>
+        <v>0.0003419571148697287</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0008166392799466848</v>
+        <v>0.0007095619803294539</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001736832637107</v>
+        <v>0.0003108272212557495</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.001576775568537414</v>
+        <v>0.0007041072240099311</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0006126479129306972</v>
+        <v>0.001551310415379703</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001257071387954056</v>
+        <v>0.0005052872584201396</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.001953744096681476</v>
+        <v>8.175754192052409e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.002357392106205225</v>
+        <v>0.0005275230505503714</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0008119504200294614</v>
+        <v>0.0003479438310023397</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0005896552465856075</v>
+        <v>0.0003935896675102413</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.001457164995372295</v>
+        <v>0.0001908093690872192</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.000836582388728857</v>
+        <v>0.0004589313757605851</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.654168388806283e-05</v>
+        <v>0.0001228091132361442</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0003351934719830751</v>
+        <v>0.001182801672257483</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0003156595630571246</v>
+        <v>8.091026393231004e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.002410096116364002</v>
+        <v>0.0006443242309615016</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.00734487920999527</v>
+        <v>0.0005804577376693487</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0008671131217852235</v>
+        <v>0.0003836178511846811</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0003536810399964452</v>
+        <v>0.002977886702865362</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.001861181575804949</v>
+        <v>0.004031086340546608</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001142220571637154</v>
+        <v>0.005241080652922392</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.00350657757371664</v>
+        <v>0.0009443456074222922</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.002676475094631314</v>
+        <v>0.0002549692871980369</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.00110275368206203</v>
+        <v>0.0003241233644075692</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.002480140654370189</v>
+        <v>0.001318984432145953</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0009640101343393326</v>
+        <v>0.001496266690082848</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0003938463050872087</v>
+        <v>0.0008164495229721069</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0001395901199430227</v>
+        <v>0.001746432157233357</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.001910125021822751</v>
+        <v>0.000394680944737047</v>
       </c>
       <c r="BH13" t="n">
-        <v>7.233250653371215e-05</v>
+        <v>0.001628702157177031</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0003854175447486341</v>
+        <v>0.0004401213373057544</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0009971873369067907</v>
+        <v>0.001889249193482101</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001206378685310483</v>
+        <v>9.912363020703197e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.002728828229010105</v>
+        <v>0.0002540240529924631</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0004799874150194228</v>
+        <v>0.0002630912349559367</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0001943113602465019</v>
+        <v>0.0002345931134186685</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.002344985958188772</v>
+        <v>0.002428828971460462</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001695310114882886</v>
+        <v>0.0008733088034205139</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001845317310653627</v>
+        <v>0.0002204658230766654</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001361351809464395</v>
+        <v>0.0002562159788794816</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0003981950576417148</v>
+        <v>0.001660537673160434</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.001123317750170827</v>
+        <v>0.0002305007656104863</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.001995300641283393</v>
+        <v>1.076095577445813e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.002464116085320711</v>
+        <v>0.001087194308638573</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001394957769662142</v>
+        <v>0.0002377987839281559</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.002199068199843168</v>
+        <v>0.002021994907408953</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.002898430684581399</v>
+        <v>0.002152985893189907</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001297959708608687</v>
+        <v>0.004073359537869692</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0002696075243875384</v>
+        <v>0.0008630098309367895</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0001419346372131258</v>
+        <v>1.224322477355599e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0006011028890497983</v>
+        <v>0.0004596014332491904</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0006319918902590871</v>
+        <v>0.000211709615541622</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002400035969913006</v>
+        <v>0.000184443561010994</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0002193839172832668</v>
+        <v>0.0002489067264832556</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0003059072769246995</v>
+        <v>0.0002031761541729793</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0001655574887990952</v>
+        <v>0.001091316808015108</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0002676164731383324</v>
+        <v>0.001451210118830204</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001093579849111848</v>
+        <v>0.0005986221367493272</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0001677856780588627</v>
+        <v>0.0009320423705503345</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0005070965271443129</v>
+        <v>7.599673699587584e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0007294643437489867</v>
+        <v>0.0001749501097947359</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.002245145384222269</v>
+        <v>0.001251952489838004</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0003825657768175006</v>
+        <v>0.0006014413083903491</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0008913221536204219</v>
+        <v>0.001805484527722001</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.005065130069851875</v>
+        <v>0.001733499113470316</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0009081453899852931</v>
+        <v>0.00140467332676053</v>
       </c>
       <c r="CS13" t="n">
-        <v>9.243928070645779e-05</v>
+        <v>0.001394472550600767</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0007227160385809839</v>
+        <v>0.002020144602283835</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0006131657864898443</v>
+        <v>0.000127185630844906</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0008835890330374241</v>
+        <v>0.0002444051788188517</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.002115501556545496</v>
+        <v>0.0002263838250655681</v>
       </c>
       <c r="CX13" t="n">
-        <v>8.229416562244296e-05</v>
+        <v>0.0002082940191030502</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0003649097052402794</v>
+        <v>0.0001398261083522812</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0004840466135647148</v>
+        <v>0.000860776228364557</v>
       </c>
       <c r="DA13" t="n">
-        <v>7.050990825518966e-05</v>
+        <v>0.001542074256576598</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001613640051800758</v>
+        <v>0.0002233120030723512</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003950110112782568</v>
+        <v>0.0007364435587078333</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0004876556049566716</v>
+        <v>0.0004155245260335505</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001556662144139409</v>
+        <v>0.001956939464434981</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.004547654651105404</v>
+        <v>0.0007024699007160962</v>
       </c>
       <c r="DG13" t="n">
-        <v>5.404115654528141e-06</v>
+        <v>0.00027814696659334</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0003438612620811909</v>
+        <v>0.004225924611091614</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0008545602322556078</v>
+        <v>8.05772069725208e-05</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0004842721973545849</v>
+        <v>0.0008856805507093668</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001468507922254503</v>
+        <v>0.001531093847006559</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.003518242854624987</v>
+        <v>0.0008705609943717718</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0006679798243567348</v>
+        <v>0.001269074622541666</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.001142727909609675</v>
+        <v>0.001286087208427489</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.002176824258640409</v>
+        <v>0.0009358077077195048</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0002891506301239133</v>
+        <v>0.0002094926167046651</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0002659665187820792</v>
+        <v>0.0001453171717002988</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.000937929842621088</v>
+        <v>0.001379663590341806</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.001992647768929601</v>
+        <v>0.001910048769786954</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.674882464110851e-06</v>
+        <v>0.001652079401537776</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.003581270109862089</v>
+        <v>0.0006727491854690015</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.002017304068431258</v>
+        <v>0.0004665410087909549</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001451720600016415</v>
+        <v>0.0001741344749461859</v>
       </c>
       <c r="DX13" t="n">
-        <v>4.882641951553524e-05</v>
+        <v>0.001245598425157368</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006303581176325679</v>
+        <v>0.0006232403102330863</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001125630689784884</v>
+        <v>0.0008578742854297161</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001514033298008144</v>
+        <v>0.00125500001013279</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.001973021309822798</v>
+        <v>0.0006941173924133182</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0007228300673887134</v>
+        <v>0.0005476030637510121</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0002969420747831464</v>
+        <v>0.0004599520179908723</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.001380175934173167</v>
+        <v>0.0008954136283136904</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0007717905100435019</v>
+        <v>3.042425669264048e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001820720033720136</v>
+        <v>0.0009512999095022678</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002702552825212479</v>
+        <v>0.0005947562167420983</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.002033494878560305</v>
+        <v>0.001173043623566628</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0008068741881288588</v>
+        <v>0.0007992595783434808</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.00066492980113253</v>
+        <v>0.001169595052488148</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.00133045669645071</v>
+        <v>9.930069791153073e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0005816671764478087</v>
+        <v>0.0006518409354612231</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001056850887835026</v>
+        <v>0.0003648321435321122</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001597546390257776</v>
+        <v>0.0007685237214900553</v>
       </c>
       <c r="EP13" t="n">
-        <v>5.250528192846105e-05</v>
+        <v>0.0001939723151735961</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001654941355809569</v>
+        <v>0.0002241400652565062</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.003770398674532771</v>
+        <v>0.0009872543159872293</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.001486234832555056</v>
+        <v>0.0009464985923841596</v>
       </c>
       <c r="ET13" t="n">
-        <v>3.398809349164367e-05</v>
+        <v>0.0001265459140995517</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004550436569843441</v>
+        <v>0.0001945242984220386</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.000264465605141595</v>
+        <v>0.003576743183657527</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.001834532944485545</v>
+        <v>0.0009626925457268953</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0008903000270947814</v>
+        <v>0.0004262049333192408</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.00241233198903501</v>
+        <v>0.0002962621801998466</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0004353714466560632</v>
+        <v>8.92754178494215e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0004700873396359384</v>
+        <v>0.0002234926214441657</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0003920983290299773</v>
+        <v>0.001247681910172105</v>
       </c>
       <c r="FC13" t="n">
-        <v>4.649811307899654e-05</v>
+        <v>0.001335164648480713</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0003094464482273906</v>
+        <v>0.0005713134887628257</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0005552159855142236</v>
+        <v>0.000999681418761611</v>
       </c>
       <c r="FF13" t="n">
-        <v>4.467341204872355e-05</v>
+        <v>0.0002566493058111519</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00273424107581377</v>
+        <v>0.0008524016593582928</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.002841733163222671</v>
+        <v>0.0001483247033320367</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.002772686304524541</v>
+        <v>0.0001327979261986911</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001773735275492072</v>
+        <v>0.002632993273437023</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.001518744044005871</v>
+        <v>0.001143912319093943</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0003788936010096222</v>
+        <v>0.0004711351648438722</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.001831559697166085</v>
+        <v>0.0001643685100134462</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.001838394906371832</v>
+        <v>0.0004897695034742355</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.004307088442146778</v>
+        <v>0.0004189182945992798</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0003233089228160679</v>
+        <v>0.0006730311433784664</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0001631273189559579</v>
+        <v>0.002820095047354698</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.000130932399770245</v>
+        <v>0.0004763867182191461</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.002563075395300984</v>
+        <v>0.0005987031618133187</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002092930488288403</v>
+        <v>0.004430990200489759</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002767181722447276</v>
+        <v>0.000687493709847331</v>
       </c>
       <c r="FV13" t="n">
-        <v>6.529880920425057e-05</v>
+        <v>0.0007388237281702459</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0009617783944122493</v>
+        <v>0.003295687958598137</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0007625120924785733</v>
+        <v>0.001357809407636523</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0005065173027105629</v>
+        <v>0.0008722780621610582</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0009499623556621373</v>
+        <v>0.001317010377533734</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0005161406588740647</v>
+        <v>0.0002625164052005857</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0009195253369398415</v>
+        <v>0.0005818323697894812</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0003798589168582112</v>
+        <v>0.002034298842772841</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0003476412675809115</v>
+        <v>5.807616980746388e-05</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.002879375591874123</v>
+        <v>0.001701054745353758</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001692116027697921</v>
+        <v>0.0007453833241015673</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.001513715367764235</v>
+        <v>0.0001701003056950867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7980043888092041</v>
+        <v>0.01050173491239548</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00310688279569149</v>
+        <v>0.0007564560510218143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02006334066390991</v>
+        <v>0.002514334861189127</v>
       </c>
       <c r="D14" t="n">
-        <v>1.483054399490356</v>
+        <v>0.006291531026363373</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07714734971523285</v>
+        <v>0.001747955684550107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08627521991729736</v>
+        <v>0.002598877297714353</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5893001556396484</v>
+        <v>0.001549510518088937</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1827054023742676</v>
+        <v>0.001066891360096633</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2674883008003235</v>
+        <v>0.0003503976913634688</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4966591894626617</v>
+        <v>0.009214379824697971</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2859188914299011</v>
+        <v>0.0008370316354557872</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2355461418628693</v>
+        <v>0.003069570288062096</v>
       </c>
       <c r="M14" t="n">
-        <v>1.350181341171265</v>
+        <v>0.002464102115482092</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1877158880233765</v>
+        <v>0.0023857899941504</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5440265536308289</v>
+        <v>0.0004881910281255841</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4027425348758698</v>
+        <v>0.000277721497695893</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8035219311714172</v>
+        <v>0.0012892090016976</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2605564594268799</v>
+        <v>0.0007166711729951203</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04681740701198578</v>
+        <v>0.001464126631617546</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002670310437679291</v>
+        <v>0.0022189577575773</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03360897302627563</v>
+        <v>0.001025112578645349</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1017880216240883</v>
+        <v>0.0001962576352525502</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3077031075954437</v>
+        <v>0.0009395908564329147</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08567497879266739</v>
+        <v>0.0003293401678092778</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2347611486911774</v>
+        <v>9.469993528909981e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1794457137584686</v>
+        <v>0.001664177631027997</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05284930765628815</v>
+        <v>0.0003784531727433205</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1206909567117691</v>
+        <v>0.001051105558872223</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1123591661453247</v>
+        <v>0.002359914127737284</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.15684874355793</v>
+        <v>0.0006234904285520315</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3261222243309021</v>
+        <v>0.0005378745263442397</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.003063958138227463</v>
+        <v>0.001049193437211215</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.3144531548023224</v>
+        <v>0.0007288622437044978</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.3754164576530457</v>
+        <v>0.0004736215341836214</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1991987526416779</v>
+        <v>0.0008894946076907218</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.1448434293270111</v>
+        <v>0.0006562877679243684</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.2768847942352295</v>
+        <v>0.001467940048314631</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.203010231256485</v>
+        <v>4.080065991729498e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.03652426227927208</v>
+        <v>0.0004609531897585839</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.3046272993087769</v>
+        <v>0.001056008390150964</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1461004614830017</v>
+        <v>0.001367094460874796</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.3586424291133881</v>
+        <v>0.0005880944081582129</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.04570029303431511</v>
+        <v>0.001289719948545098</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.4553323090076447</v>
+        <v>0.001265030237846076</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.009630344808101654</v>
+        <v>0.0005803233361802995</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3348743319511414</v>
+        <v>0.006621968001127243</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.1127598807215691</v>
+        <v>0.002152825240045786</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0523977130651474</v>
+        <v>0.002807668410241604</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.6781903505325317</v>
+        <v>0.003620513714849949</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.06298802047967911</v>
+        <v>0.002346037654206157</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.3243824243545532</v>
+        <v>0.0005687958328053355</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3633486330509186</v>
+        <v>0.0005854620831087232</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2781329751014709</v>
+        <v>0.002310347277671099</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.2700473964214325</v>
+        <v>0.0009105396457016468</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.3296568989753723</v>
+        <v>0.004249491728842258</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.05049462616443634</v>
+        <v>0.005419149063527584</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.08241535723209381</v>
+        <v>0.0004468848346732557</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.4884039163589478</v>
+        <v>0.0004702541045844555</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1336879879236221</v>
+        <v>0.001683171256445348</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.2911699712276459</v>
+        <v>8.659108425490558e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.5401582717895508</v>
+        <v>0.0005397822242230177</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.5785898566246033</v>
+        <v>0.002560549648478627</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.2127883732318878</v>
+        <v>0.001679806970059872</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.04836475104093552</v>
+        <v>0.0005769968265667558</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0452885814011097</v>
+        <v>0.002488788682967424</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.05655861645936966</v>
+        <v>0.0004808885860256851</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1632773876190186</v>
+        <v>0.0005625608027912676</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.03311916068196297</v>
+        <v>0.0005804807879030704</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.1431063264608383</v>
+        <v>0.0009372135391458869</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.05622079968452454</v>
+        <v>0.001105583622120321</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.2174757570028305</v>
+        <v>0.0004598313244059682</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0745670422911644</v>
+        <v>0.0008401621598750353</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.338683009147644</v>
+        <v>0.002869532443583012</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0969032496213913</v>
+        <v>0.0001035601308103651</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.1728839874267578</v>
+        <v>0.001123433234170079</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.3069287538528442</v>
+        <v>0.001537587959319353</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.03509730100631714</v>
+        <v>0.0002346262917853892</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.02735940366983414</v>
+        <v>0.0003938801819458604</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.03018537908792496</v>
+        <v>0.0005229492671787739</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.07692517340183258</v>
+        <v>0.001637814682908356</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.4325339794158936</v>
+        <v>0.0004193983040750027</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.1476801037788391</v>
+        <v>0.002023672219365835</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.06347719579935074</v>
+        <v>0.001502062194049358</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.04148954525589943</v>
+        <v>5.420617526397109e-06</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.2577519714832306</v>
+        <v>0.0005768678965978324</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.01621504127979279</v>
+        <v>0.0001066087206709199</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.08016208559274673</v>
+        <v>0.001405467046424747</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.09461034089326859</v>
+        <v>2.576404949650168e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.06137858331203461</v>
+        <v>0.001214729738421738</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.127806693315506</v>
+        <v>0.0002063660213025287</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.1595111489295959</v>
+        <v>0.002516514156013727</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.06342277675867081</v>
+        <v>0.000830874138046056</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0434861071407795</v>
+        <v>0.0001003705838229507</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.3142878413200378</v>
+        <v>0.002274278784170747</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1584634631872177</v>
+        <v>0.003113775048404932</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.4066934883594513</v>
+        <v>0.0007869007531553507</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.3560896515846252</v>
+        <v>0.002240808680653572</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.3348560631275177</v>
+        <v>0.003861335106194019</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.3604306876659393</v>
+        <v>0.0009505163179710507</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.1407967060804367</v>
+        <v>0.001506694359704852</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.07863463461399078</v>
+        <v>0.00176537421066314</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.04827950894832611</v>
+        <v>0.0001734806864988059</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.1798141747713089</v>
+        <v>0.0007190221804194152</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02563528716564178</v>
+        <v>0.0001112302634282969</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.1322479695081711</v>
+        <v>0.00106937694363296</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.08931514620780945</v>
+        <v>0.0001792673720046878</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.03532658517360687</v>
+        <v>0.0009158776374533772</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.081815205514431</v>
+        <v>0.000179326074430719</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0546913780272007</v>
+        <v>0.001201523235067725</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.1813017427921295</v>
+        <v>0.002134585753083229</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.06638672947883606</v>
+        <v>0.002912910189479589</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.2511263787746429</v>
+        <v>0.00364292087033391</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.8291019201278687</v>
+        <v>0.0005140498396940529</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.06872132420539856</v>
+        <v>0.0006665245746262372</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.1686412841081619</v>
+        <v>0.001025411416776478</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.3449321091175079</v>
+        <v>0.004379014018923044</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.2119806855916977</v>
+        <v>0.0008872740436345339</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.05410235747694969</v>
+        <v>0.0009116295841522515</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.1144059374928474</v>
+        <v>0.0002309531555511057</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.06525615602731705</v>
+        <v>0.0007855809526517987</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.03627528995275497</v>
+        <v>0.0009535087738186121</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0710759237408638</v>
+        <v>0.00235738349147141</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.1213569939136505</v>
+        <v>0.0008419759687967598</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.163001760840416</v>
+        <v>0.0008136490359902382</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.1515829861164093</v>
+        <v>0.0003393536317162216</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.004605942405760288</v>
+        <v>0.001362241921015084</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.07788532227277756</v>
+        <v>0.00203878921456635</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.03431329131126404</v>
+        <v>0.001487813657149673</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.08899518102407455</v>
+        <v>0.000370398658560589</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.06269025802612305</v>
+        <v>0.0009201281936839223</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.2069532871246338</v>
+        <v>0.001044851611368358</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.2467709481716156</v>
+        <v>0.0006370110204443336</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.06425458192825317</v>
+        <v>0.0003040885785594583</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.1403027474880219</v>
+        <v>0.0001836243900470436</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.01066463068127632</v>
+        <v>0.0006637233309447765</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.2836650609970093</v>
+        <v>0.0019664925057441</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.03264228999614716</v>
+        <v>0.002301768166944385</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.05243732035160065</v>
+        <v>0.001227330649271607</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.2712391912937164</v>
+        <v>0.00244476180523634</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.009716331958770752</v>
+        <v>0.002473931992426515</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.1317211091518402</v>
+        <v>0.0005324967205524445</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.03948548063635826</v>
+        <v>0.0001218881370732561</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.1079525053501129</v>
+        <v>0.0002504348813090473</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.04953353106975555</v>
+        <v>0.0002731033600866795</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.1015509814023972</v>
+        <v>0.0001233993680216372</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.02887651324272156</v>
+        <v>0.003386748488992453</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.2005178332328796</v>
+        <v>0.0007054522284306586</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.06868128478527069</v>
+        <v>0.0001350081292912364</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.03742764890193939</v>
+        <v>9.860075078904629e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.1520811468362808</v>
+        <v>0.001453239237889647</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.1266476809978485</v>
+        <v>0.0009384283912368119</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.02239631116390228</v>
+        <v>0.0004458822368178517</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.1004043146967888</v>
+        <v>0.00206280592828989</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.1435591578483582</v>
+        <v>0.001645014039240777</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.05124963447451591</v>
+        <v>0.001769150258041918</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.07183972001075745</v>
+        <v>0.0003448915667831898</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.1989971548318863</v>
+        <v>0.0006347264861688018</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0416286513209343</v>
+        <v>0.0001528508437331766</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.00872361846268177</v>
+        <v>0.001107720891013741</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.08183664828538895</v>
+        <v>0.0002022648986894637</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.07748282700777054</v>
+        <v>0.001024747616611421</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.01103802025318146</v>
+        <v>0.0002846250717993826</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.1928252130746841</v>
+        <v>0.0002588019124232233</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.01272888481616974</v>
+        <v>0.002448909683153033</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.07180545479059219</v>
+        <v>0.002487952820956707</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.3437291979789734</v>
+        <v>0.0004698792472481728</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.1629293709993362</v>
+        <v>0.0009604080696590245</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.2649442553520203</v>
+        <v>0.00254782335832715</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.1174326688051224</v>
+        <v>0.001312646549195051</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.1598501056432724</v>
+        <v>0.0006549263489432633</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.05043899640440941</v>
+        <v>0.0008791880682110786</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.07117187231779099</v>
+        <v>0.001450680661946535</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.1305847316980362</v>
+        <v>0.001101318397559226</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.1051631644368172</v>
+        <v>0.001704101450741291</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.3427787721157074</v>
+        <v>0.001851035747677088</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.1996064037084579</v>
+        <v>0.002833271631971002</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.3693662881851196</v>
+        <v>0.002354091266170144</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.09129124879837036</v>
+        <v>0.001280519179999828</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.3204203844070435</v>
+        <v>0.0003927809884771705</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.1640918254852295</v>
+        <v>0.0005421803798526525</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.1356659531593323</v>
+        <v>0.00100234616547823</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.1770693808794022</v>
+        <v>1.22649798868224e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.03911148011684418</v>
+        <v>5.170120857656002e-06</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.04420056194067001</v>
+        <v>0.0001564878039062023</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.2185574471950531</v>
+        <v>0.001227733679115772</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.1873518228530884</v>
+        <v>0.0002073278010357171</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.1345090866088867</v>
+        <v>0.0009955022251233459</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0939335823059082</v>
+        <v>0.0004263925948180258</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0004851929843425751</v>
+        <v>0.001087187556549907</v>
       </c>
     </row>
     <row r="15">
@@ -9539,571 +9539,571 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.853085086622741e-05</v>
+        <v>2.934546827759732e-09</v>
       </c>
       <c r="B17" t="n">
-        <v>1.125268227042397e-05</v>
+        <v>2.484724603846189e-08</v>
       </c>
       <c r="C17" t="n">
-        <v>1.625176992092747e-06</v>
+        <v>3.654305080758036e-09</v>
       </c>
       <c r="D17" t="n">
-        <v>1.241398058482446e-05</v>
+        <v>4.965550459701262e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>7.906964128778782e-06</v>
+        <v>9.318380733702725e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>3.903426659235265e-06</v>
+        <v>3.053773411920702e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>1.074228930519894e-05</v>
+        <v>1.115397640916171e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>7.338624641306524e-08</v>
+        <v>2.112722441438564e-08</v>
       </c>
       <c r="I17" t="n">
-        <v>5.809020422020694e-06</v>
+        <v>1.477547506567589e-08</v>
       </c>
       <c r="J17" t="n">
-        <v>1.678398984950036e-05</v>
+        <v>2.179082470021854e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>9.419149137102067e-06</v>
+        <v>2.177339375464271e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>6.275128043853329e-07</v>
+        <v>3.351003474705294e-09</v>
       </c>
       <c r="M17" t="n">
-        <v>1.232133581652306e-05</v>
+        <v>2.855500369491892e-08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023489312501624e-05</v>
+        <v>1.745809186104452e-08</v>
       </c>
       <c r="O17" t="n">
-        <v>7.901164167378738e-07</v>
+        <v>1.144837202815552e-08</v>
       </c>
       <c r="P17" t="n">
-        <v>1.090041223505978e-05</v>
+        <v>3.871361453633426e-09</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.912551624627667e-06</v>
+        <v>1.294340634672153e-09</v>
       </c>
       <c r="R17" t="n">
-        <v>7.75657008489361e-06</v>
+        <v>3.312181640069412e-10</v>
       </c>
       <c r="S17" t="n">
-        <v>6.609243996535952e-07</v>
+        <v>5.793754920269123e-10</v>
       </c>
       <c r="T17" t="n">
-        <v>1.514660880275187e-06</v>
+        <v>1.122864823344116e-08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91756225831341e-06</v>
+        <v>9.890246399635316e-10</v>
       </c>
       <c r="V17" t="n">
-        <v>1.497540438322176e-06</v>
+        <v>3.717997021368546e-09</v>
       </c>
       <c r="W17" t="n">
-        <v>1.098833877222205e-07</v>
+        <v>1.794469639548879e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>5.298197152114881e-07</v>
+        <v>7.41405425941366e-09</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.6480515796502e-06</v>
+        <v>1.15265121891639e-08</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.846332558372524e-06</v>
+        <v>2.505144536257831e-09</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.571132997923996e-06</v>
+        <v>1.326298981751961e-08</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.945915629330557e-07</v>
+        <v>1.521651071811903e-08</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.962749820449972e-06</v>
+        <v>2.07661603468523e-08</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.878519348494592e-07</v>
+        <v>1.257094606188502e-08</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.467125684939674e-06</v>
+        <v>9.948091239664336e-10</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.646655164222466e-06</v>
+        <v>1.720969922125448e-09</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.273343620297965e-06</v>
+        <v>6.890274573123634e-09</v>
       </c>
       <c r="AH17" t="n">
-        <v>4.282321697246516e-08</v>
+        <v>1.310488872974247e-08</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.657629117195029e-06</v>
+        <v>5.706243033642977e-09</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.063025592884514e-06</v>
+        <v>2.381240316040589e-09</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.959728928748518e-06</v>
+        <v>7.378169630811726e-09</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.585280753919506e-06</v>
+        <v>6.972078914202484e-09</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.159212256941828e-07</v>
+        <v>3.796994718641145e-09</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.022128683165647e-06</v>
+        <v>3.172131668449651e-09</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.879938963611494e-06</v>
+        <v>9.010433510425742e-10</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.256454311260313e-06</v>
+        <v>5.244665146619809e-09</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.956885615887586e-07</v>
+        <v>1.189673870527486e-08</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.049620431738731e-07</v>
+        <v>7.784819899825379e-09</v>
       </c>
       <c r="AS17" t="n">
-        <v>8.063477139330644e-07</v>
+        <v>2.392722020516658e-09</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.017242630041437e-05</v>
+        <v>2.783443253662199e-09</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.391169113659998e-06</v>
+        <v>1.887214828855122e-08</v>
       </c>
       <c r="AV17" t="n">
-        <v>6.041203732820577e-07</v>
+        <v>6.943337016451778e-09</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.581080025265692e-07</v>
+        <v>6.194813551019251e-09</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.945715666806791e-06</v>
+        <v>4.085078053606139e-09</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.436194842583063e-07</v>
+        <v>1.124437876143247e-09</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9.622724519431358e-07</v>
+        <v>3.360300482313505e-09</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.111606474703876e-06</v>
+        <v>6.751110781522129e-09</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.484663130213448e-06</v>
+        <v>2.373732099769654e-09</v>
       </c>
       <c r="BC17" t="n">
-        <v>4.897198323305929e-06</v>
+        <v>1.325830911724779e-08</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.396539855453739e-08</v>
+        <v>4.368589046066518e-09</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.119587518085609e-06</v>
+        <v>7.334307383644045e-09</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.266757294615672e-07</v>
+        <v>6.510501471268526e-09</v>
       </c>
       <c r="BG17" t="n">
-        <v>4.774588433065219e-06</v>
+        <v>1.818901829153674e-08</v>
       </c>
       <c r="BH17" t="n">
-        <v>4.015099079879292e-07</v>
+        <v>1.889418754785765e-08</v>
       </c>
       <c r="BI17" t="n">
-        <v>5.824477739224676e-06</v>
+        <v>6.769102611769995e-09</v>
       </c>
       <c r="BJ17" t="n">
-        <v>7.03938394508441e-06</v>
+        <v>1.463218168851199e-08</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.434231080565951e-07</v>
+        <v>1.17794929366255e-09</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.037953666127578e-06</v>
+        <v>7.117919587074084e-09</v>
       </c>
       <c r="BM17" t="n">
-        <v>3.177774942741962e-06</v>
+        <v>9.450815241507371e-09</v>
       </c>
       <c r="BN17" t="n">
-        <v>9.477547564529232e-07</v>
+        <v>3.462522935038237e-09</v>
       </c>
       <c r="BO17" t="n">
-        <v>2.569731577750645e-06</v>
+        <v>1.053561504704703e-08</v>
       </c>
       <c r="BP17" t="n">
-        <v>2.455267349432688e-06</v>
+        <v>1.06641779851202e-08</v>
       </c>
       <c r="BQ17" t="n">
-        <v>4.354910174697579e-07</v>
+        <v>1.709283381501336e-09</v>
       </c>
       <c r="BR17" t="n">
-        <v>2.086976110149408e-06</v>
+        <v>7.644210597845813e-09</v>
       </c>
       <c r="BS17" t="n">
-        <v>2.979645330469793e-07</v>
+        <v>1.367775936955695e-08</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.52742852985466e-07</v>
+        <v>5.550177206714579e-09</v>
       </c>
       <c r="BU17" t="n">
-        <v>8.685125067131594e-06</v>
+        <v>6.810238595278406e-09</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.213714426739898e-07</v>
+        <v>9.645906295929763e-09</v>
       </c>
       <c r="BW17" t="n">
-        <v>3.23098879562167e-06</v>
+        <v>1.548500216941306e-09</v>
       </c>
       <c r="BX17" t="n">
-        <v>7.075692337821238e-06</v>
+        <v>2.144331601172667e-09</v>
       </c>
       <c r="BY17" t="n">
-        <v>2.885397861973615e-06</v>
+        <v>1.90798310484297e-09</v>
       </c>
       <c r="BZ17" t="n">
-        <v>3.702907633851282e-07</v>
+        <v>8.336642487449808e-09</v>
       </c>
       <c r="CA17" t="n">
-        <v>1.463125840928114e-06</v>
+        <v>9.529723676848789e-09</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.290725322178332e-06</v>
+        <v>3.002003978735956e-09</v>
       </c>
       <c r="CC17" t="n">
-        <v>9.827389249039697e-07</v>
+        <v>6.625521020708902e-09</v>
       </c>
       <c r="CD17" t="n">
-        <v>3.555665443855105e-06</v>
+        <v>7.709610727602012e-10</v>
       </c>
       <c r="CE17" t="n">
-        <v>5.273940587358084e-06</v>
+        <v>7.856387540527976e-09</v>
       </c>
       <c r="CF17" t="n">
-        <v>7.627491527273378e-07</v>
+        <v>2.681534549964226e-09</v>
       </c>
       <c r="CG17" t="n">
-        <v>4.106718733964954e-06</v>
+        <v>2.619042760443335e-09</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.581091282787384e-06</v>
+        <v>2.273170984778972e-09</v>
       </c>
       <c r="CI17" t="n">
-        <v>5.927630013502494e-07</v>
+        <v>1.907675351020544e-09</v>
       </c>
       <c r="CJ17" t="n">
-        <v>2.63119318333338e-06</v>
+        <v>9.084407670556516e-10</v>
       </c>
       <c r="CK17" t="n">
-        <v>2.66345523414202e-07</v>
+        <v>2.558347755865498e-09</v>
       </c>
       <c r="CL17" t="n">
-        <v>1.954789752289798e-07</v>
+        <v>3.877305143618059e-09</v>
       </c>
       <c r="CM17" t="n">
-        <v>3.296239583505667e-06</v>
+        <v>1.095717916399508e-08</v>
       </c>
       <c r="CN17" t="n">
-        <v>1.803901682251308e-06</v>
+        <v>2.04612238263735e-09</v>
       </c>
       <c r="CO17" t="n">
-        <v>1.479370098422805e-06</v>
+        <v>3.187642816371294e-09</v>
       </c>
       <c r="CP17" t="n">
-        <v>1.355639597022673e-06</v>
+        <v>2.486161143622212e-08</v>
       </c>
       <c r="CQ17" t="n">
-        <v>3.9322490010818e-06</v>
+        <v>1.016779549445346e-08</v>
       </c>
       <c r="CR17" t="n">
-        <v>1.159176918008598e-06</v>
+        <v>7.259429501971226e-09</v>
       </c>
       <c r="CS17" t="n">
-        <v>6.070873723729164e-07</v>
+        <v>1.999710264044552e-08</v>
       </c>
       <c r="CT17" t="n">
-        <v>4.068789621669566e-06</v>
+        <v>1.527692461422703e-08</v>
       </c>
       <c r="CU17" t="n">
-        <v>2.629053142300108e-06</v>
+        <v>7.304757687620622e-09</v>
       </c>
       <c r="CV17" t="n">
-        <v>2.971311459987191e-06</v>
+        <v>1.58127799743113e-09</v>
       </c>
       <c r="CW17" t="n">
-        <v>5.280666300677694e-06</v>
+        <v>4.954615828722808e-09</v>
       </c>
       <c r="CX17" t="n">
-        <v>1.562871148053091e-06</v>
+        <v>3.868027675935082e-09</v>
       </c>
       <c r="CY17" t="n">
-        <v>3.051443172807922e-06</v>
+        <v>6.602198787675206e-09</v>
       </c>
       <c r="CZ17" t="n">
-        <v>3.740018428288749e-08</v>
+        <v>3.764034417486073e-09</v>
       </c>
       <c r="DA17" t="n">
-        <v>8.264664757007267e-07</v>
+        <v>2.532427600954179e-10</v>
       </c>
       <c r="DB17" t="n">
-        <v>2.739340288826497e-06</v>
+        <v>4.797413577506404e-09</v>
       </c>
       <c r="DC17" t="n">
-        <v>8.475691970488697e-08</v>
+        <v>2.767590823182786e-09</v>
       </c>
       <c r="DD17" t="n">
-        <v>1.173767643081192e-07</v>
+        <v>2.341330240795969e-09</v>
       </c>
       <c r="DE17" t="n">
-        <v>8.818660148790514e-07</v>
+        <v>9.660473310191264e-09</v>
       </c>
       <c r="DF17" t="n">
-        <v>3.342128366057295e-06</v>
+        <v>1.421801343326479e-08</v>
       </c>
       <c r="DG17" t="n">
-        <v>2.522236172808334e-06</v>
+        <v>2.250510178214427e-08</v>
       </c>
       <c r="DH17" t="n">
-        <v>1.788425493032264e-06</v>
+        <v>2.35117951774555e-08</v>
       </c>
       <c r="DI17" t="n">
-        <v>5.439028996079287e-07</v>
+        <v>3.100329948324543e-08</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1.197407073050272e-06</v>
+        <v>4.148882126742137e-09</v>
       </c>
       <c r="DK17" t="n">
-        <v>1.195803406517371e-06</v>
+        <v>4.436666145579693e-09</v>
       </c>
       <c r="DL17" t="n">
-        <v>3.820769507001387e-06</v>
+        <v>2.633818318997783e-08</v>
       </c>
       <c r="DM17" t="n">
-        <v>5.695930667570792e-06</v>
+        <v>5.069050956763022e-09</v>
       </c>
       <c r="DN17" t="n">
-        <v>8.454335898022691e-07</v>
+        <v>1.006035255102233e-08</v>
       </c>
       <c r="DO17" t="n">
-        <v>3.84160875910311e-06</v>
+        <v>3.569915696388648e-09</v>
       </c>
       <c r="DP17" t="n">
-        <v>1.773453050191165e-06</v>
+        <v>9.359425234833907e-09</v>
       </c>
       <c r="DQ17" t="n">
-        <v>4.39846962763113e-06</v>
+        <v>2.692886136301809e-09</v>
       </c>
       <c r="DR17" t="n">
-        <v>5.257888460619142e-06</v>
+        <v>4.011688314875528e-09</v>
       </c>
       <c r="DS17" t="n">
-        <v>2.862007477233419e-06</v>
+        <v>4.471569781117068e-09</v>
       </c>
       <c r="DT17" t="n">
-        <v>4.278887786313135e-07</v>
+        <v>1.819466466379538e-09</v>
       </c>
       <c r="DU17" t="n">
-        <v>8.305036658384779e-08</v>
+        <v>8.657748296059253e-09</v>
       </c>
       <c r="DV17" t="n">
-        <v>4.745596982047573e-07</v>
+        <v>1.57430246616741e-08</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.323467924725264e-06</v>
+        <v>2.410374566608198e-09</v>
       </c>
       <c r="DX17" t="n">
-        <v>7.568584692307923e-07</v>
+        <v>4.379568707690851e-09</v>
       </c>
       <c r="DY17" t="n">
-        <v>2.731026995661523e-07</v>
+        <v>1.950817640761215e-08</v>
       </c>
       <c r="DZ17" t="n">
-        <v>5.236264541963465e-07</v>
+        <v>5.940123948278142e-10</v>
       </c>
       <c r="EA17" t="n">
-        <v>2.417698851786554e-06</v>
+        <v>1.449900466354848e-08</v>
       </c>
       <c r="EB17" t="n">
-        <v>2.576923918695684e-07</v>
+        <v>1.493321022394412e-08</v>
       </c>
       <c r="EC17" t="n">
-        <v>2.185232460760744e-06</v>
+        <v>2.367195106600661e-09</v>
       </c>
       <c r="ED17" t="n">
-        <v>3.638477664935635e-06</v>
+        <v>2.425865508470793e-09</v>
       </c>
       <c r="EE17" t="n">
-        <v>2.717641564231599e-06</v>
+        <v>6.007525032991623e-10</v>
       </c>
       <c r="EF17" t="n">
-        <v>4.463622644834686e-06</v>
+        <v>4.181536894520832e-09</v>
       </c>
       <c r="EG17" t="n">
-        <v>5.873803274880629e-06</v>
+        <v>2.296398848855574e-09</v>
       </c>
       <c r="EH17" t="n">
-        <v>8.131709137160215e-07</v>
+        <v>3.107123447421145e-09</v>
       </c>
       <c r="EI17" t="n">
-        <v>5.683693416358437e-06</v>
+        <v>5.140713632556526e-09</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1.88697777048219e-06</v>
+        <v>7.314541861092039e-09</v>
       </c>
       <c r="EK17" t="n">
-        <v>1.864299520093482e-06</v>
+        <v>2.008015975718536e-09</v>
       </c>
       <c r="EL17" t="n">
-        <v>1.088142653316027e-06</v>
+        <v>6.49997389245982e-09</v>
       </c>
       <c r="EM17" t="n">
-        <v>1.676649731052748e-06</v>
+        <v>1.829704832090329e-09</v>
       </c>
       <c r="EN17" t="n">
-        <v>2.753114642928267e-07</v>
+        <v>6.058097579142441e-09</v>
       </c>
       <c r="EO17" t="n">
-        <v>1.922348928928841e-07</v>
+        <v>3.484829091959796e-09</v>
       </c>
       <c r="EP17" t="n">
-        <v>5.647729722113581e-06</v>
+        <v>3.375894452872785e-09</v>
       </c>
       <c r="EQ17" t="n">
-        <v>2.264756204795049e-08</v>
+        <v>5.516198609001322e-09</v>
       </c>
       <c r="ER17" t="n">
-        <v>1.051326080414583e-06</v>
+        <v>1.319616971251492e-09</v>
       </c>
       <c r="ES17" t="n">
-        <v>5.446480372484075e-06</v>
+        <v>4.751003146452604e-09</v>
       </c>
       <c r="ET17" t="n">
-        <v>8.410009968429222e-07</v>
+        <v>3.954386595950155e-09</v>
       </c>
       <c r="EU17" t="n">
-        <v>6.137416903584381e-07</v>
+        <v>2.853834057958693e-09</v>
       </c>
       <c r="EV17" t="n">
-        <v>1.243490260094404e-06</v>
+        <v>2.231507245653575e-08</v>
       </c>
       <c r="EW17" t="n">
-        <v>1.676783540460747e-06</v>
+        <v>1.366946733583063e-08</v>
       </c>
       <c r="EX17" t="n">
-        <v>3.050327677556197e-06</v>
+        <v>4.164191214073298e-10</v>
       </c>
       <c r="EY17" t="n">
-        <v>4.372745934233535e-06</v>
+        <v>4.654975960249885e-09</v>
       </c>
       <c r="EZ17" t="n">
-        <v>1.644252392907219e-06</v>
+        <v>2.1761450419433e-09</v>
       </c>
       <c r="FA17" t="n">
-        <v>3.635130951806786e-06</v>
+        <v>5.076011611038211e-09</v>
       </c>
       <c r="FB17" t="n">
-        <v>3.499970944176312e-07</v>
+        <v>2.817929889431525e-09</v>
       </c>
       <c r="FC17" t="n">
-        <v>1.529738710814854e-06</v>
+        <v>4.398367225988409e-10</v>
       </c>
       <c r="FD17" t="n">
-        <v>2.156611571990652e-06</v>
+        <v>2.119876496564643e-09</v>
       </c>
       <c r="FE17" t="n">
-        <v>2.571208881363418e-07</v>
+        <v>2.642281282660974e-09</v>
       </c>
       <c r="FF17" t="n">
-        <v>4.247745835073147e-07</v>
+        <v>3.103341361665457e-09</v>
       </c>
       <c r="FG17" t="n">
-        <v>3.034998144357814e-06</v>
+        <v>5.874666975103082e-09</v>
       </c>
       <c r="FH17" t="n">
-        <v>3.726776185430936e-07</v>
+        <v>1.039988184459162e-08</v>
       </c>
       <c r="FI17" t="n">
-        <v>1.719367446639808e-06</v>
+        <v>2.701771251167884e-08</v>
       </c>
       <c r="FJ17" t="n">
-        <v>1.250408217856602e-06</v>
+        <v>1.018449058420856e-08</v>
       </c>
       <c r="FK17" t="n">
-        <v>2.662008682818851e-06</v>
+        <v>1.444605590705805e-08</v>
       </c>
       <c r="FL17" t="n">
-        <v>1.953292667167261e-06</v>
+        <v>8.086523450856475e-09</v>
       </c>
       <c r="FM17" t="n">
-        <v>3.364701569807949e-06</v>
+        <v>3.030462547570778e-10</v>
       </c>
       <c r="FN17" t="n">
-        <v>1.51607036968926e-06</v>
+        <v>7.058729600828428e-09</v>
       </c>
       <c r="FO17" t="n">
-        <v>1.854752440522134e-08</v>
+        <v>9.933658340344209e-10</v>
       </c>
       <c r="FP17" t="n">
-        <v>3.632799234765116e-06</v>
+        <v>2.187473757686575e-09</v>
       </c>
       <c r="FQ17" t="n">
-        <v>7.546872438979335e-06</v>
+        <v>1.364542479009856e-09</v>
       </c>
       <c r="FR17" t="n">
-        <v>3.182923364875023e-07</v>
+        <v>1.231353019548465e-09</v>
       </c>
       <c r="FS17" t="n">
-        <v>1.804262865334749e-06</v>
+        <v>2.986279667993585e-09</v>
       </c>
       <c r="FT17" t="n">
-        <v>3.540344096109038e-06</v>
+        <v>1.249522263435665e-08</v>
       </c>
       <c r="FU17" t="n">
-        <v>5.030588908994105e-06</v>
+        <v>4.856917090734214e-09</v>
       </c>
       <c r="FV17" t="n">
-        <v>3.086062179136206e-06</v>
+        <v>1.679213212923969e-08</v>
       </c>
       <c r="FW17" t="n">
-        <v>6.521781870105769e-07</v>
+        <v>2.567366319539133e-09</v>
       </c>
       <c r="FX17" t="n">
-        <v>2.627642743391334e-06</v>
+        <v>5.423366200574264e-10</v>
       </c>
       <c r="FY17" t="n">
-        <v>3.338065198477125e-06</v>
+        <v>7.948231406373907e-09</v>
       </c>
       <c r="FZ17" t="n">
-        <v>1.588088025528123e-06</v>
+        <v>1.285581507914912e-08</v>
       </c>
       <c r="GA17" t="n">
-        <v>2.660820200617309e-06</v>
+        <v>2.450952552024432e-09</v>
       </c>
       <c r="GB17" t="n">
-        <v>4.504218395595672e-06</v>
+        <v>2.087377382054001e-09</v>
       </c>
       <c r="GC17" t="n">
-        <v>1.767243929862161e-06</v>
+        <v>6.383314765656678e-09</v>
       </c>
       <c r="GD17" t="n">
-        <v>8.370701038984407e-07</v>
+        <v>1.463381771316108e-08</v>
       </c>
       <c r="GE17" t="n">
-        <v>2.92910431198834e-06</v>
+        <v>3.953358174157984e-08</v>
       </c>
       <c r="GF17" t="n">
-        <v>5.160804334991553e-07</v>
+        <v>4.330169556254759e-09</v>
       </c>
       <c r="GG17" t="n">
-        <v>2.382539605605416e-06</v>
+        <v>2.032256674056043e-08</v>
       </c>
     </row>
   </sheetData>
